--- a/最終結果/誤識別率結果.xlsx
+++ b/最終結果/誤識別率結果.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi Omozaki\IDrive\Junior\a\最終結果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Uone/IDrive/OPU/研究フォルダ/Junior/最終結果/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9D63E-4073-DB41-B2D9-08691C56AA43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31785" yWindow="-1665" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アンサンブルimport" sheetId="3" r:id="rId1"/>
@@ -25,9 +26,10 @@
     <sheet name="tst_overFitとtst_interval比較" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="tra_missRates_ensembleLocal_1" localSheetId="0">アンサンブルimport!$B$2:$L$31</definedName>
     <definedName name="tra_missRates_SingleClassifier_1" localSheetId="1">単一import!$B$2:$D$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +39,26 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tra_missRates_SingleClassifier" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10001" sourceFile="/Users/Uone/IDrive/OPU/研究フォルダ/Junior/最終結果/interval50_island7_satimage/ensemble/tra_missRates_SingleClassifier.txt" tab="0" space="1" consecutive="1" qualifier="none">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{4453C225-A4CB-D744-86DF-8A13C5B081AB}" name="tra_missRates_ensembleLocal" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10001" sourceFile="/Users/Uone/IDrive/OPU/研究フォルダ/Junior/最終結果/interval50_island3_satimage/ensemble/tra_missRates_ensembleLocal.txt" tab="0" space="1" consecutive="1" qualifier="none">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{29B8C4CB-3FC5-4A4B-961A-E02729AFB6E0}" name="tra_missRates_SingleClassifier" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10001" sourceFile="/Users/Uone/IDrive/OPU/研究フォルダ/Junior/最終結果/interval50_island3_satimage/ensemble/tra_missRates_SingleClassifier.txt" tab="0" space="1" consecutive="1" qualifier="none">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -361,12 +380,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,6 +897,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,12 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,6 +934,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -941,28 +975,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ピボットテーブル スタイル 1" table="0" count="0"/>
+    <tableStyle name="ピボットテーブル スタイル 1" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1045,7 +1064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,9 +1145,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-B8CA-4E7D-A6EA-391C7DADE0CF}"/>
                 </c:ext>
@@ -1150,9 +1166,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B8CA-4E7D-A6EA-391C7DADE0CF}"/>
                 </c:ext>
@@ -1173,9 +1187,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-B8CA-4E7D-A6EA-391C7DADE0CF}"/>
                 </c:ext>
@@ -1219,7 +1231,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1329,9 +1340,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-B8CA-4E7D-A6EA-391C7DADE0CF}"/>
                 </c:ext>
@@ -1352,9 +1361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-B8CA-4E7D-A6EA-391C7DADE0CF}"/>
                 </c:ext>
@@ -1375,9 +1382,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-B8CA-4E7D-A6EA-391C7DADE0CF}"/>
                 </c:ext>
@@ -1421,7 +1426,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1752,7 +1756,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1842,9 +1845,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-7414-44F3-83F8-224F58713AF7}"/>
                 </c:ext>
@@ -1865,9 +1866,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-7414-44F3-83F8-224F58713AF7}"/>
                 </c:ext>
@@ -1888,9 +1887,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-7414-44F3-83F8-224F58713AF7}"/>
                 </c:ext>
@@ -1934,7 +1931,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2052,9 +2048,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-7414-44F3-83F8-224F58713AF7}"/>
                 </c:ext>
@@ -2075,9 +2069,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7414-44F3-83F8-224F58713AF7}"/>
                 </c:ext>
@@ -2098,9 +2090,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-7414-44F3-83F8-224F58713AF7}"/>
                 </c:ext>
@@ -2144,7 +2134,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2387,7 +2376,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2486,7 +2474,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2611,7 +2598,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2701,9 +2687,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-F07D-468C-B547-F63F75552C4A}"/>
                 </c:ext>
@@ -2724,9 +2708,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-F07D-468C-B547-F63F75552C4A}"/>
                 </c:ext>
@@ -2747,9 +2729,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F07D-468C-B547-F63F75552C4A}"/>
                 </c:ext>
@@ -2910,9 +2890,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F07D-468C-B547-F63F75552C4A}"/>
                 </c:ext>
@@ -2933,9 +2911,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F07D-468C-B547-F63F75552C4A}"/>
                 </c:ext>
@@ -2956,9 +2932,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F07D-468C-B547-F63F75552C4A}"/>
                 </c:ext>
@@ -3284,7 +3258,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3391,7 +3364,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3470,9 +3442,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A1DF-4CBF-9489-402171AAA126}"/>
                 </c:ext>
@@ -3493,9 +3463,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A1DF-4CBF-9489-402171AAA126}"/>
                 </c:ext>
@@ -3516,9 +3484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A1DF-4CBF-9489-402171AAA126}"/>
                 </c:ext>
@@ -3562,7 +3528,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3666,9 +3631,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A1DF-4CBF-9489-402171AAA126}"/>
                 </c:ext>
@@ -3689,9 +3652,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A1DF-4CBF-9489-402171AAA126}"/>
                 </c:ext>
@@ -3712,9 +3673,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A1DF-4CBF-9489-402171AAA126}"/>
                 </c:ext>
@@ -3759,7 +3718,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3952,7 +3910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6208,7 +6165,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6243,7 +6206,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6278,7 +6247,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6315,7 +6290,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6334,7 +6315,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tra_missRates_SingleClassifier_1" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tra_missRates_ensembleLocal_1" connectionId="1" xr16:uid="{D281EECC-61D0-944A-A087-919030EDF164}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tra_missRates_SingleClassifier_1" connectionId="2" xr16:uid="{E6EB9131-07F3-3246-9671-B2953DE1497E}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6633,24 +6618,1071 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="21" thickBot="1"/>
+    <row r="2" spans="1:12" ht="21" thickBot="1">
       <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>11.9323087549646</v>
+      </c>
+      <c r="E2">
+        <v>11.9323087549646</v>
+      </c>
+      <c r="F2">
+        <v>11.9495769297185</v>
+      </c>
+      <c r="G2">
+        <v>12.104990502503799</v>
+      </c>
+      <c r="H2">
+        <v>11.880504230702799</v>
+      </c>
+      <c r="I2">
+        <v>11.880504230702799</v>
+      </c>
+      <c r="J2">
+        <v>75.116560179589001</v>
+      </c>
+      <c r="K2">
+        <v>74.926610257295806</v>
+      </c>
+      <c r="L2">
+        <v>74.909342082541798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>12.329476774304901</v>
+      </c>
+      <c r="E3">
+        <v>12.329476774304901</v>
+      </c>
+      <c r="F3">
+        <v>12.329476774304901</v>
+      </c>
+      <c r="G3">
+        <v>24.710758072871698</v>
+      </c>
+      <c r="H3">
+        <v>23.709203937143801</v>
+      </c>
+      <c r="I3">
+        <v>23.7437402866517</v>
+      </c>
+      <c r="J3">
+        <v>71.386634432740394</v>
+      </c>
+      <c r="K3">
+        <v>66.724227249179705</v>
+      </c>
+      <c r="L3">
+        <v>66.758763598687594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>12.0359178034881</v>
+      </c>
+      <c r="E4">
+        <v>12.0359178034881</v>
+      </c>
+      <c r="F4">
+        <v>12.0359178034881</v>
+      </c>
+      <c r="G4">
+        <v>13.0029355897081</v>
+      </c>
+      <c r="H4">
+        <v>12.8647901916767</v>
+      </c>
+      <c r="I4">
+        <v>12.8820583664306</v>
+      </c>
+      <c r="J4">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="K4">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="L4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>11.2588499395613</v>
+      </c>
+      <c r="E5">
+        <v>11.2588499395613</v>
+      </c>
+      <c r="F5">
+        <v>11.2588499395613</v>
+      </c>
+      <c r="G5">
+        <v>11.794163356933099</v>
+      </c>
+      <c r="H5">
+        <v>11.7596270074253</v>
+      </c>
+      <c r="I5">
+        <v>11.7596270074253</v>
+      </c>
+      <c r="J5">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="K5">
+        <v>76.135382490070796</v>
+      </c>
+      <c r="L5">
+        <v>76.135382490070796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>12.191331376273499</v>
+      </c>
+      <c r="E6">
+        <v>12.208599551027399</v>
+      </c>
+      <c r="F6">
+        <v>12.191331376273499</v>
+      </c>
+      <c r="G6">
+        <v>12.3985494733206</v>
+      </c>
+      <c r="H6">
+        <v>12.3985494733206</v>
+      </c>
+      <c r="I6">
+        <v>12.3985494733206</v>
+      </c>
+      <c r="J6">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="K6">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="L6">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>11.256906077348001</v>
+      </c>
+      <c r="E7">
+        <v>11.256906077348001</v>
+      </c>
+      <c r="F7">
+        <v>11.291436464088299</v>
+      </c>
+      <c r="G7">
+        <v>17.386049723756901</v>
+      </c>
+      <c r="H7">
+        <v>11.895718232044199</v>
+      </c>
+      <c r="I7">
+        <v>11.878453038673999</v>
+      </c>
+      <c r="J7">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K7">
+        <v>74.223066298342502</v>
+      </c>
+      <c r="L7">
+        <v>74.775552486187806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>11.9647790055248</v>
+      </c>
+      <c r="E8">
+        <v>11.9475138121546</v>
+      </c>
+      <c r="F8">
+        <v>11.9475138121546</v>
+      </c>
+      <c r="G8">
+        <v>14.122928176795501</v>
+      </c>
+      <c r="H8">
+        <v>13.6049723756906</v>
+      </c>
+      <c r="I8">
+        <v>13.6049723756906</v>
+      </c>
+      <c r="J8">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K8">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L8">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>13.622237569060699</v>
+      </c>
+      <c r="E9">
+        <v>13.639502762430901</v>
+      </c>
+      <c r="F9">
+        <v>13.639502762430901</v>
+      </c>
+      <c r="G9">
+        <v>15.314226519337</v>
+      </c>
+      <c r="H9">
+        <v>13.622237569060699</v>
+      </c>
+      <c r="I9">
+        <v>13.622237569060699</v>
+      </c>
+      <c r="J9">
+        <v>73.428867403314896</v>
+      </c>
+      <c r="K9">
+        <v>72.876381215469607</v>
+      </c>
+      <c r="L9">
+        <v>72.876381215469607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>12.379143646408799</v>
+      </c>
+      <c r="E10">
+        <v>12.379143646408799</v>
+      </c>
+      <c r="F10">
+        <v>12.379143646408799</v>
+      </c>
+      <c r="G10">
+        <v>17.1270718232044</v>
+      </c>
+      <c r="H10">
+        <v>13.104281767955801</v>
+      </c>
+      <c r="I10">
+        <v>13.121546961325899</v>
+      </c>
+      <c r="J10">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K10">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L10">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>11.9129834254143</v>
+      </c>
+      <c r="E11">
+        <v>11.9129834254143</v>
+      </c>
+      <c r="F11">
+        <v>11.9129834254143</v>
+      </c>
+      <c r="G11">
+        <v>12.1719613259668</v>
+      </c>
+      <c r="H11">
+        <v>12.2064917127071</v>
+      </c>
+      <c r="I11">
+        <v>12.2064917127071</v>
+      </c>
+      <c r="J11">
+        <v>76.0531767955801</v>
+      </c>
+      <c r="K11">
+        <v>76.0186464088397</v>
+      </c>
+      <c r="L11">
+        <v>76.0186464088397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>11.7078224831635</v>
+      </c>
+      <c r="E12">
+        <v>11.6732861336556</v>
+      </c>
+      <c r="F12">
+        <v>11.690554308409601</v>
+      </c>
+      <c r="G12">
+        <v>14.9887756864099</v>
+      </c>
+      <c r="H12">
+        <v>12.225867725781301</v>
+      </c>
+      <c r="I12">
+        <v>12.225867725781301</v>
+      </c>
+      <c r="J12">
+        <v>73.683301675012899</v>
+      </c>
+      <c r="K12">
+        <v>75.151096529096804</v>
+      </c>
+      <c r="L12">
+        <v>75.151096529096804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>11.2070454152996</v>
+      </c>
+      <c r="E13">
+        <v>11.2243135900535</v>
+      </c>
+      <c r="F13">
+        <v>11.2243135900535</v>
+      </c>
+      <c r="G13">
+        <v>11.604213434639901</v>
+      </c>
+      <c r="H13">
+        <v>11.466068036608499</v>
+      </c>
+      <c r="I13">
+        <v>11.466068036608499</v>
+      </c>
+      <c r="J13">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="K13">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="L13">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>12.312208599551001</v>
+      </c>
+      <c r="E14">
+        <v>12.312208599551001</v>
+      </c>
+      <c r="F14">
+        <v>12.312208599551001</v>
+      </c>
+      <c r="G14">
+        <v>15.3859437057503</v>
+      </c>
+      <c r="H14">
+        <v>13.054740113969901</v>
+      </c>
+      <c r="I14">
+        <v>13.054740113969901</v>
+      </c>
+      <c r="J14">
+        <v>71.041270937661807</v>
+      </c>
+      <c r="K14">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="L14">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>12.536694871351999</v>
+      </c>
+      <c r="E15">
+        <v>12.519426696598099</v>
+      </c>
+      <c r="F15">
+        <v>12.536694871351999</v>
+      </c>
+      <c r="G15">
+        <v>14.4361940942842</v>
+      </c>
+      <c r="H15">
+        <v>12.640303919875601</v>
+      </c>
+      <c r="I15">
+        <v>12.640303919875601</v>
+      </c>
+      <c r="J15">
+        <v>73.631497150751102</v>
+      </c>
+      <c r="K15">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="L15">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>11.897772405456699</v>
+      </c>
+      <c r="E16">
+        <v>11.897772405456699</v>
+      </c>
+      <c r="F16">
+        <v>11.897772405456699</v>
+      </c>
+      <c r="G16">
+        <v>19.7202555689863</v>
+      </c>
+      <c r="H16">
+        <v>14.7642894146088</v>
+      </c>
+      <c r="I16">
+        <v>14.7642894146088</v>
+      </c>
+      <c r="J16">
+        <v>69.867035054394705</v>
+      </c>
+      <c r="K16">
+        <v>69.9706441029183</v>
+      </c>
+      <c r="L16">
+        <v>69.953375928164306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>12.016574585635301</v>
+      </c>
+      <c r="E17">
+        <v>12.016574585635301</v>
+      </c>
+      <c r="F17">
+        <v>12.016574585635301</v>
+      </c>
+      <c r="G17">
+        <v>13.0179558011049</v>
+      </c>
+      <c r="H17">
+        <v>12.9143646408839</v>
+      </c>
+      <c r="I17">
+        <v>12.9143646408839</v>
+      </c>
+      <c r="J17">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K17">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L17">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>12.4827348066298</v>
+      </c>
+      <c r="E18">
+        <v>12.4827348066298</v>
+      </c>
+      <c r="F18">
+        <v>12.4827348066298</v>
+      </c>
+      <c r="G18">
+        <v>13.2941988950276</v>
+      </c>
+      <c r="H18">
+        <v>12.603591160220899</v>
+      </c>
+      <c r="I18">
+        <v>12.6553867403314</v>
+      </c>
+      <c r="J18">
+        <v>73.9468232044198</v>
+      </c>
+      <c r="K18">
+        <v>73.446132596685004</v>
+      </c>
+      <c r="L18">
+        <v>75.224447513812095</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>11.878453038673999</v>
+      </c>
+      <c r="E19">
+        <v>11.878453038673999</v>
+      </c>
+      <c r="F19">
+        <v>11.878453038673999</v>
+      </c>
+      <c r="G19">
+        <v>23.049033149171201</v>
+      </c>
+      <c r="H19">
+        <v>14.58908839779</v>
+      </c>
+      <c r="I19">
+        <v>14.623618784530301</v>
+      </c>
+      <c r="J19">
+        <v>69.233425414364604</v>
+      </c>
+      <c r="K19">
+        <v>74.844613259668506</v>
+      </c>
+      <c r="L19">
+        <v>74.861878453038599</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>12.1719613259668</v>
+      </c>
+      <c r="E20">
+        <v>12.1719613259668</v>
+      </c>
+      <c r="F20">
+        <v>12.1719613259668</v>
+      </c>
+      <c r="G20">
+        <v>12.828038674033101</v>
+      </c>
+      <c r="H20">
+        <v>12.828038674033101</v>
+      </c>
+      <c r="I20">
+        <v>12.828038674033101</v>
+      </c>
+      <c r="J20">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K20">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L20">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>11.9647790055248</v>
+      </c>
+      <c r="E21">
+        <v>11.982044198895</v>
+      </c>
+      <c r="F21">
+        <v>11.982044198895</v>
+      </c>
+      <c r="G21">
+        <v>15.2796961325966</v>
+      </c>
+      <c r="H21">
+        <v>13.2251381215469</v>
+      </c>
+      <c r="I21">
+        <v>13.2251381215469</v>
+      </c>
+      <c r="J21">
+        <v>72.306629834254096</v>
+      </c>
+      <c r="K21">
+        <v>73.895027624309293</v>
+      </c>
+      <c r="L21">
+        <v>73.895027624309293</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>11.794163356933099</v>
+      </c>
+      <c r="E22">
+        <v>11.794163356933099</v>
+      </c>
+      <c r="F22">
+        <v>11.794163356933099</v>
+      </c>
+      <c r="G22">
+        <v>13.659126230357399</v>
+      </c>
+      <c r="H22">
+        <v>12.605767570367799</v>
+      </c>
+      <c r="I22">
+        <v>12.8820583664306</v>
+      </c>
+      <c r="J22">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="K22">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="L22">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>11.6560179589017</v>
+      </c>
+      <c r="E23">
+        <v>11.6560179589017</v>
+      </c>
+      <c r="F23">
+        <v>11.6387497841478</v>
+      </c>
+      <c r="G23">
+        <v>12.346744949058801</v>
+      </c>
+      <c r="H23">
+        <v>12.312208599551001</v>
+      </c>
+      <c r="I23">
+        <v>12.312208599551001</v>
+      </c>
+      <c r="J23">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="K23">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="L23">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>11.8632360559488</v>
+      </c>
+      <c r="E24">
+        <v>11.8632360559488</v>
+      </c>
+      <c r="F24">
+        <v>11.8632360559488</v>
+      </c>
+      <c r="G24">
+        <v>14.1253669487135</v>
+      </c>
+      <c r="H24">
+        <v>14.0217579001899</v>
+      </c>
+      <c r="I24">
+        <v>14.0217579001899</v>
+      </c>
+      <c r="J24">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="K24">
+        <v>76.187187014332494</v>
+      </c>
+      <c r="L24">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>12.208599551027399</v>
+      </c>
+      <c r="E25">
+        <v>12.2431359005353</v>
+      </c>
+      <c r="F25">
+        <v>12.225867725781301</v>
+      </c>
+      <c r="G25">
+        <v>14.5916076670695</v>
+      </c>
+      <c r="H25">
+        <v>12.208599551027399</v>
+      </c>
+      <c r="I25">
+        <v>12.208599551027399</v>
+      </c>
+      <c r="J25">
+        <v>72.232774995682902</v>
+      </c>
+      <c r="K25">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="L25">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>11.068900017268099</v>
+      </c>
+      <c r="E26">
+        <v>11.068900017268099</v>
+      </c>
+      <c r="F26">
+        <v>11.068900017268099</v>
+      </c>
+      <c r="G26">
+        <v>11.4315316871006</v>
+      </c>
+      <c r="H26">
+        <v>11.4142635123467</v>
+      </c>
+      <c r="I26">
+        <v>11.4142635123467</v>
+      </c>
+      <c r="J26">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="K26">
+        <v>76.1699188395786</v>
+      </c>
+      <c r="L26">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>12.2064917127071</v>
+      </c>
+      <c r="E27">
+        <v>12.2237569060773</v>
+      </c>
+      <c r="F27">
+        <v>12.2237569060773</v>
+      </c>
+      <c r="G27">
+        <v>12.862569060773399</v>
+      </c>
+      <c r="H27">
+        <v>12.551795580110401</v>
+      </c>
+      <c r="I27">
+        <v>12.551795580110401</v>
+      </c>
+      <c r="J27">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K27">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L27">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>10.4281767955801</v>
+      </c>
+      <c r="E28">
+        <v>10.4281767955801</v>
+      </c>
+      <c r="F28">
+        <v>10.4281767955801</v>
+      </c>
+      <c r="G28">
+        <v>11.291436464088299</v>
+      </c>
+      <c r="H28">
+        <v>11.308701657458499</v>
+      </c>
+      <c r="I28">
+        <v>11.325966850828699</v>
+      </c>
+      <c r="J28">
+        <v>75.656077348066304</v>
+      </c>
+      <c r="K28">
+        <v>75.863259668508206</v>
+      </c>
+      <c r="L28">
+        <v>75.863259668508206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>12.4136740331491</v>
+      </c>
+      <c r="E29">
+        <v>12.361878453038599</v>
+      </c>
+      <c r="F29">
+        <v>12.361878453038599</v>
+      </c>
+      <c r="G29">
+        <v>13.449585635359099</v>
+      </c>
+      <c r="H29">
+        <v>13.4323204419889</v>
+      </c>
+      <c r="I29">
+        <v>13.4323204419889</v>
+      </c>
+      <c r="J29">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K29">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L29">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>11.256906077348001</v>
+      </c>
+      <c r="E30">
+        <v>11.256906077348001</v>
+      </c>
+      <c r="F30">
+        <v>11.256906077348001</v>
+      </c>
+      <c r="G30">
+        <v>16.7299723756906</v>
+      </c>
+      <c r="H30">
+        <v>14.0366022099447</v>
+      </c>
+      <c r="I30">
+        <v>14.0366022099447</v>
+      </c>
+      <c r="J30">
+        <v>73.497928176795497</v>
+      </c>
+      <c r="K30">
+        <v>75.966850828729207</v>
+      </c>
+      <c r="L30">
+        <v>75.966850828729207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>12.085635359116001</v>
+      </c>
+      <c r="E31">
+        <v>12.068370165745799</v>
+      </c>
+      <c r="F31">
+        <v>12.085635359116001</v>
+      </c>
+      <c r="G31">
+        <v>13.691298342541399</v>
+      </c>
+      <c r="H31">
+        <v>12.4654696132596</v>
+      </c>
+      <c r="I31">
+        <v>12.4654696132596</v>
+      </c>
+      <c r="J31">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="K31">
+        <v>76.174033149171194</v>
+      </c>
+      <c r="L31">
+        <v>76.174033149171194</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6660,55 +7692,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="15" width="10.6640625" style="22"/>
+    <col min="6" max="15" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F2" s="42" t="s">
+    <row r="1" spans="1:15" ht="21" thickBot="1"/>
+    <row r="2" spans="1:15">
+      <c r="F2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F3" s="43"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3" s="48"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="44"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" thickBot="1">
+      <c r="F4" s="49"/>
       <c r="G4" s="23" t="s">
         <v>0</v>
       </c>
@@ -6737,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21" thickTop="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6794,7 +7826,7 @@
         <v>-11.21995162136875</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="D6" t="s">
         <v>25</v>
       </c>
@@ -6842,7 +7874,7 @@
         <v>-11.232297300381092</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -6890,7 +7922,7 @@
         <v>-12.389992088036792</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="D8" t="s">
         <v>31</v>
       </c>
@@ -6938,7 +7970,7 @@
         <v>-12.390677395054325</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6989,7 +8021,7 @@
         <v>-55.394976639651745</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="D10" t="s">
         <v>25</v>
       </c>
@@ -7037,7 +8069,7 @@
         <v>-55.612432341927246</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="D11" t="s">
         <v>31</v>
       </c>
@@ -7085,7 +8117,7 @@
         <v>-53.868016883695503</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="D12" t="s">
         <v>31</v>
       </c>
@@ -7133,7 +8165,7 @@
         <v>-54.555815658100329</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -7187,7 +8219,7 @@
         <v>-12.058955751808483</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -7235,7 +8267,7 @@
         <v>-12.083624289724099</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -7283,7 +8315,7 @@
         <v>-13.038341849573044</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -7331,7 +8363,7 @@
         <v>-13.037656542555496</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -7382,7 +8414,7 @@
         <v>-57.975168159088653</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -7430,7 +8462,7 @@
         <v>-57.959616059555245</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="D19" t="s">
         <v>31</v>
       </c>
@@ -7478,7 +8510,7 @@
         <v>-57.887666846185752</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -7526,7 +8558,7 @@
         <v>-57.880196989168155</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -7583,7 +8615,7 @@
         <v>-11.497558248328431</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="D22" t="s">
         <v>25</v>
       </c>
@@ -7631,7 +8663,7 @@
         <v>-11.472889710412815</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15">
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -7679,7 +8711,7 @@
         <v>-12.957459979084817</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -7727,7 +8759,7 @@
         <v>-12.958145286102365</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -7778,7 +8810,7 @@
         <v>-56.374098831499609</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="D26" t="s">
         <v>25</v>
       </c>
@@ -7826,7 +8858,7 @@
         <v>-56.488010715815179</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="D27" t="s">
         <v>31</v>
       </c>
@@ -7874,7 +8906,7 @@
         <v>-55.597580909190071</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="D28" t="s">
         <v>31</v>
       </c>
@@ -7922,7 +8954,7 @@
         <v>-56.148394242606102</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -7976,7 +9008,7 @@
         <v>-12.330492229752863</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15">
       <c r="D30" t="s">
         <v>25</v>
       </c>
@@ -8024,7 +9056,7 @@
         <v>-12.324307980192145</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15">
       <c r="D31" t="s">
         <v>31</v>
       </c>
@@ -8072,7 +9104,7 @@
         <v>-13.358385581828074</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15">
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -8120,7 +9152,7 @@
         <v>-13.359070888845622</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -8171,7 +9203,7 @@
         <v>-59.238438157060088</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15">
       <c r="D34" t="s">
         <v>25</v>
       </c>
@@ -8219,7 +9251,7 @@
         <v>-58.513092098696276</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15">
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -8267,7 +9299,7 @@
         <v>-59.365793785078964</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15">
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -8315,7 +9347,7 @@
         <v>-58.634839778846541</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -8372,7 +9404,7 @@
         <v>-12.299251500422187</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -8423,7 +9455,7 @@
         <v>-12.280744391958208</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -8474,7 +9506,7 @@
         <v>-13.923152407771198</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -8525,7 +9557,7 @@
         <v>-13.922466818908291</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27" t="s">
@@ -8578,7 +9610,7 @@
         <v>-57.555494914173678</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -8629,7 +9661,7 @@
         <v>-57.721319577936001</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -8680,7 +9712,7 @@
         <v>-57.444535230892683</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -8731,7 +9763,7 @@
         <v>-57.857186172389802</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15">
       <c r="A45" s="27"/>
       <c r="B45" s="27" t="s">
         <v>34</v>
@@ -8786,7 +9818,7 @@
         <v>-13.193913876908326</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -8837,7 +9869,7 @@
         <v>-13.200086716414503</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -8888,7 +9920,7 @@
         <v>-14.309011402561794</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -8939,7 +9971,7 @@
         <v>-14.308325813698886</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27" t="s">
@@ -8992,7 +10024,7 @@
         <v>-60.387957265535206</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -9043,7 +10075,7 @@
         <v>-59.947636435059536</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -9094,7 +10126,7 @@
         <v>-61.759860160622864</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -9145,7 +10177,7 @@
         <v>-61.009603772507859</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15">
       <c r="A53" s="27" t="s">
         <v>38</v>
       </c>
@@ -9162,7 +10194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -9173,7 +10205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -9184,7 +10216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -9195,7 +10227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27" t="s">
@@ -9208,7 +10240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -9219,7 +10251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -9230,7 +10262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -9241,7 +10273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15">
       <c r="A61" s="27"/>
       <c r="B61" s="27" t="s">
         <v>34</v>
@@ -9256,7 +10288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -9267,7 +10299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -9278,7 +10310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -9289,7 +10321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27" t="s">
@@ -9302,7 +10334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -9313,7 +10345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -9324,7 +10356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -9350,55 +10382,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="15" width="11.5546875" style="22"/>
+    <col min="6" max="15" width="11.5703125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F2" s="49" t="s">
+    <row r="1" spans="1:15" ht="21" thickBot="1"/>
+    <row r="2" spans="1:15">
+      <c r="F2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F3" s="50"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3" s="29"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="51" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" thickBot="1">
+      <c r="F4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="23" t="s">
@@ -9429,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21" thickTop="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -9486,7 +10518,7 @@
         <v>12.077462860272462</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="D6" t="s">
         <v>25</v>
       </c>
@@ -9534,7 +10566,7 @@
         <v>-11.232297300381092</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -9585,7 +10617,7 @@
         <v>-55.394976639651745</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="D8" t="s">
         <v>25</v>
       </c>
@@ -9633,7 +10665,7 @@
         <v>-55.612432341927246</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -9687,7 +10719,7 @@
         <v>-12.058955751808483</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="D10" t="s">
         <v>25</v>
       </c>
@@ -9735,7 +10767,7 @@
         <v>-12.083624289724099</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="C11" t="s">
         <v>33</v>
       </c>
@@ -9786,7 +10818,7 @@
         <v>-57.975168159088653</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="D12" t="s">
         <v>25</v>
       </c>
@@ -9834,7 +10866,7 @@
         <v>-57.959616059555245</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -9891,7 +10923,7 @@
         <v>-11.497558248328431</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -9939,7 +10971,7 @@
         <v>-11.472889710412815</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -9990,7 +11022,7 @@
         <v>-56.374098831499609</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="D16" t="s">
         <v>25</v>
       </c>
@@ -10038,7 +11070,7 @@
         <v>-56.488010715815179</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -10092,7 +11124,7 @@
         <v>-12.330492229752863</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -10140,7 +11172,7 @@
         <v>-12.324307980192145</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -10191,7 +11223,7 @@
         <v>-59.238438157060088</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="D20" t="s">
         <v>25</v>
       </c>
@@ -10239,7 +11271,7 @@
         <v>-58.513092098696276</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -10296,7 +11328,7 @@
         <v>-12.299251500422187</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -10347,7 +11379,7 @@
         <v>-12.280744391958208</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
@@ -10400,7 +11432,7 @@
         <v>-57.555494914173678</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -10451,7 +11483,7 @@
         <v>-57.721319577936001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
         <v>34</v>
@@ -10506,7 +11538,7 @@
         <v>-13.193913876908326</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -10557,7 +11589,7 @@
         <v>-13.200086716414503</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
@@ -10610,7 +11642,7 @@
         <v>-60.387957265535206</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -10661,7 +11693,7 @@
         <v>-59.947636435059536</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15">
       <c r="A29" s="27" t="s">
         <v>38</v>
       </c>
@@ -10678,7 +11710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -10689,7 +11721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27" t="s">
@@ -10702,7 +11734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -10713,7 +11745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
         <v>34</v>
@@ -10728,7 +11760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -10739,7 +11771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" s="22" customFormat="1">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27" t="s">
@@ -10752,7 +11784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" s="22" customFormat="1">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -10763,7 +11795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" s="22" customFormat="1">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -10774,7 +11806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" s="22" customFormat="1">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -10800,22 +11832,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="21" thickBot="1"/>
+    <row r="2" spans="1:4" ht="21" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="18">
         <v>0</v>
@@ -10824,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.522534968053799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.897772405456699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3">
         <v>0</v>
       </c>
@@ -10835,10 +11867,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13.572785356587801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.346744949058801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4">
         <v>0</v>
       </c>
@@ -10846,10 +11878,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15.3859437057503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.018649628734201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5">
         <v>0</v>
       </c>
@@ -10857,10 +11889,10 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>13.175617337247401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.2243135900535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6">
         <v>0</v>
       </c>
@@ -10868,10 +11900,10 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>13.8318079778967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.208599551027399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7">
         <v>0</v>
       </c>
@@ -10879,10 +11911,10 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>13.5531767955801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.360497237569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -10890,10 +11922,10 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>14.071132596685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.9129834254143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9">
         <v>0</v>
       </c>
@@ -10901,10 +11933,10 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>14.5372928176795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>13.4323204419889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10912,10 +11944,10 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12.638121546961299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.379143646408799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11">
         <v>0</v>
       </c>
@@ -10923,10 +11955,10 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>13.0352209944751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.8611878453038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12">
         <v>1</v>
       </c>
@@ -10934,10 +11966,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.9323087549646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.7078224831635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13">
         <v>1</v>
       </c>
@@ -10945,10 +11977,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>12.8129856674149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.2243135900535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14">
         <v>1</v>
       </c>
@@ -10956,10 +11988,10 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>12.1567950267656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.294940424797099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15">
         <v>1</v>
       </c>
@@ -10967,10 +11999,10 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>12.0359178034881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.536694871351999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16">
         <v>1</v>
       </c>
@@ -10978,10 +12010,10 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>12.104990502503799</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.794163356933099</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>1</v>
       </c>
@@ -10989,10 +12021,10 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>12.7589779005524</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.9647790055248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>1</v>
       </c>
@@ -11000,10 +12032,10 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>12.379143646408799</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.361878453038599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>1</v>
       </c>
@@ -11011,10 +12043,10 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>12.7071823204419</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.878453038673999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>1</v>
       </c>
@@ -11022,10 +12054,10 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>12.810773480662901</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.1719613259668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21">
         <v>1</v>
       </c>
@@ -11033,10 +12065,10 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>12.4309392265193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.999309392265101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22">
         <v>2</v>
       </c>
@@ -11044,10 +12076,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.795717492661</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.7423588326713</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23">
         <v>2</v>
       </c>
@@ -11055,10 +12087,10 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>12.1222586772578</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.690554308409601</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>2</v>
       </c>
@@ -11066,10 +12098,10 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>12.761181143153101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.8114315316871</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>2</v>
       </c>
@@ -11077,10 +12109,10 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>11.776895182179199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.018649628734201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26">
         <v>2</v>
       </c>
@@ -11088,10 +12120,10 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>12.761181143153101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.068900017268099</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>2</v>
       </c>
@@ -11099,10 +12131,10 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>12.310082872928101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.2064917127071</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>2</v>
       </c>
@@ -11110,10 +12142,10 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>13.1560773480662</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+        <v>10.4109116022099</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>2</v>
       </c>
@@ -11121,10 +12153,10 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>13.121546961325899</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.310082872928101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>2</v>
       </c>
@@ -11132,10 +12164,10 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>12.7935082872928</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.274171270718201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31">
         <v>2</v>
       </c>
@@ -11143,7 +12175,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>13.829419889502701</v>
+        <v>12.1029005524861</v>
       </c>
     </row>
   </sheetData>
@@ -11154,71 +12186,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:12" ht="21" thickBot="1"/>
+    <row r="2" spans="2:12">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="38"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="2:12" ht="21" thickBot="1">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -11247,7 +12279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" ht="21" thickTop="1">
       <c r="B5" s="11">
         <f>アンサンブルimport!B2</f>
         <v>0</v>
@@ -11258,539 +12290,539 @@
       </c>
       <c r="D5" s="11">
         <f>アンサンブルimport!D2</f>
-        <v>0</v>
+        <v>11.9323087549646</v>
       </c>
       <c r="E5" s="11">
         <f>アンサンブルimport!E2</f>
-        <v>0</v>
+        <v>11.9323087549646</v>
       </c>
       <c r="F5" s="11">
         <f>アンサンブルimport!F2</f>
-        <v>0</v>
+        <v>11.9495769297185</v>
       </c>
       <c r="G5" s="11">
         <f>アンサンブルimport!G2</f>
-        <v>0</v>
+        <v>12.104990502503799</v>
       </c>
       <c r="H5" s="11">
         <f>アンサンブルimport!H2</f>
-        <v>0</v>
+        <v>11.880504230702799</v>
       </c>
       <c r="I5" s="11">
         <f>アンサンブルimport!I2</f>
-        <v>0</v>
+        <v>11.880504230702799</v>
       </c>
       <c r="J5" s="11">
         <f>アンサンブルimport!J2</f>
-        <v>0</v>
+        <v>75.116560179589001</v>
       </c>
       <c r="K5" s="11">
         <f>アンサンブルimport!K2</f>
-        <v>0</v>
+        <v>74.926610257295806</v>
       </c>
       <c r="L5" s="11">
         <f>アンサンブルimport!L2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+        <v>74.909342082541798</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="11">
         <f>アンサンブルimport!B3</f>
         <v>0</v>
       </c>
       <c r="C6" s="11">
         <f>アンサンブルimport!C3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11">
         <f>アンサンブルimport!D3</f>
-        <v>0</v>
+        <v>12.329476774304901</v>
       </c>
       <c r="E6" s="11">
         <f>アンサンブルimport!E3</f>
-        <v>0</v>
+        <v>12.329476774304901</v>
       </c>
       <c r="F6" s="11">
         <f>アンサンブルimport!F3</f>
-        <v>0</v>
+        <v>12.329476774304901</v>
       </c>
       <c r="G6" s="11">
         <f>アンサンブルimport!G3</f>
-        <v>0</v>
+        <v>24.710758072871698</v>
       </c>
       <c r="H6" s="11">
         <f>アンサンブルimport!H3</f>
-        <v>0</v>
+        <v>23.709203937143801</v>
       </c>
       <c r="I6" s="11">
         <f>アンサンブルimport!I3</f>
-        <v>0</v>
+        <v>23.7437402866517</v>
       </c>
       <c r="J6" s="11">
         <f>アンサンブルimport!J3</f>
-        <v>0</v>
+        <v>71.386634432740394</v>
       </c>
       <c r="K6" s="11">
         <f>アンサンブルimport!K3</f>
-        <v>0</v>
+        <v>66.724227249179705</v>
       </c>
       <c r="L6" s="11">
         <f>アンサンブルimport!L3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+        <v>66.758763598687594</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="11">
         <f>アンサンブルimport!B4</f>
         <v>0</v>
       </c>
       <c r="C7" s="11">
         <f>アンサンブルimport!C4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11">
         <f>アンサンブルimport!D4</f>
-        <v>0</v>
+        <v>12.0359178034881</v>
       </c>
       <c r="E7" s="11">
         <f>アンサンブルimport!E4</f>
-        <v>0</v>
+        <v>12.0359178034881</v>
       </c>
       <c r="F7" s="11">
         <f>アンサンブルimport!F4</f>
-        <v>0</v>
+        <v>12.0359178034881</v>
       </c>
       <c r="G7" s="11">
         <f>アンサンブルimport!G4</f>
-        <v>0</v>
+        <v>13.0029355897081</v>
       </c>
       <c r="H7" s="11">
         <f>アンサンブルimport!H4</f>
-        <v>0</v>
+        <v>12.8647901916767</v>
       </c>
       <c r="I7" s="11">
         <f>アンサンブルimport!I4</f>
-        <v>0</v>
+        <v>12.8820583664306</v>
       </c>
       <c r="J7" s="11">
         <f>アンサンブルimport!J4</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="K7" s="11">
         <f>アンサンブルimport!K4</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="L7" s="11">
         <f>アンサンブルimport!L4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="11">
         <f>アンサンブルimport!B5</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
         <f>アンサンブルimport!C5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="11">
         <f>アンサンブルimport!D5</f>
-        <v>0</v>
+        <v>11.2588499395613</v>
       </c>
       <c r="E8" s="11">
         <f>アンサンブルimport!E5</f>
-        <v>0</v>
+        <v>11.2588499395613</v>
       </c>
       <c r="F8" s="11">
         <f>アンサンブルimport!F5</f>
-        <v>0</v>
+        <v>11.2588499395613</v>
       </c>
       <c r="G8" s="11">
         <f>アンサンブルimport!G5</f>
-        <v>0</v>
+        <v>11.794163356933099</v>
       </c>
       <c r="H8" s="11">
         <f>アンサンブルimport!H5</f>
-        <v>0</v>
+        <v>11.7596270074253</v>
       </c>
       <c r="I8" s="11">
         <f>アンサンブルimport!I5</f>
-        <v>0</v>
+        <v>11.7596270074253</v>
       </c>
       <c r="J8" s="11">
         <f>アンサンブルimport!J5</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="K8" s="11">
         <f>アンサンブルimport!K5</f>
-        <v>0</v>
+        <v>76.135382490070796</v>
       </c>
       <c r="L8" s="11">
         <f>アンサンブルimport!L5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.135382490070796</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="11">
         <f>アンサンブルimport!B6</f>
         <v>0</v>
       </c>
       <c r="C9" s="11">
         <f>アンサンブルimport!C6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="11">
         <f>アンサンブルimport!D6</f>
-        <v>0</v>
+        <v>12.191331376273499</v>
       </c>
       <c r="E9" s="11">
         <f>アンサンブルimport!E6</f>
-        <v>0</v>
+        <v>12.208599551027399</v>
       </c>
       <c r="F9" s="11">
         <f>アンサンブルimport!F6</f>
-        <v>0</v>
+        <v>12.191331376273499</v>
       </c>
       <c r="G9" s="11">
         <f>アンサンブルimport!G6</f>
-        <v>0</v>
+        <v>12.3985494733206</v>
       </c>
       <c r="H9" s="11">
         <f>アンサンブルimport!H6</f>
-        <v>0</v>
+        <v>12.3985494733206</v>
       </c>
       <c r="I9" s="11">
         <f>アンサンブルimport!I6</f>
-        <v>0</v>
+        <v>12.3985494733206</v>
       </c>
       <c r="J9" s="11">
         <f>アンサンブルimport!J6</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="K9" s="11">
         <f>アンサンブルimport!K6</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="L9" s="11">
         <f>アンサンブルimport!L6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="11">
         <f>アンサンブルimport!B7</f>
         <v>0</v>
       </c>
       <c r="C10" s="11">
         <f>アンサンブルimport!C7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="11">
         <f>アンサンブルimport!D7</f>
-        <v>0</v>
+        <v>11.256906077348001</v>
       </c>
       <c r="E10" s="11">
         <f>アンサンブルimport!E7</f>
-        <v>0</v>
+        <v>11.256906077348001</v>
       </c>
       <c r="F10" s="11">
         <f>アンサンブルimport!F7</f>
-        <v>0</v>
+        <v>11.291436464088299</v>
       </c>
       <c r="G10" s="11">
         <f>アンサンブルimport!G7</f>
-        <v>0</v>
+        <v>17.386049723756901</v>
       </c>
       <c r="H10" s="11">
         <f>アンサンブルimport!H7</f>
-        <v>0</v>
+        <v>11.895718232044199</v>
       </c>
       <c r="I10" s="11">
         <f>アンサンブルimport!I7</f>
-        <v>0</v>
+        <v>11.878453038673999</v>
       </c>
       <c r="J10" s="11">
         <f>アンサンブルimport!J7</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K10" s="11">
         <f>アンサンブルimport!K7</f>
-        <v>0</v>
+        <v>74.223066298342502</v>
       </c>
       <c r="L10" s="11">
         <f>アンサンブルimport!L7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+        <v>74.775552486187806</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="11">
         <f>アンサンブルimport!B8</f>
         <v>0</v>
       </c>
       <c r="C11" s="11">
         <f>アンサンブルimport!C8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11">
         <f>アンサンブルimport!D8</f>
-        <v>0</v>
+        <v>11.9647790055248</v>
       </c>
       <c r="E11" s="11">
         <f>アンサンブルimport!E8</f>
-        <v>0</v>
+        <v>11.9475138121546</v>
       </c>
       <c r="F11" s="11">
         <f>アンサンブルimport!F8</f>
-        <v>0</v>
+        <v>11.9475138121546</v>
       </c>
       <c r="G11" s="11">
         <f>アンサンブルimport!G8</f>
-        <v>0</v>
+        <v>14.122928176795501</v>
       </c>
       <c r="H11" s="11">
         <f>アンサンブルimport!H8</f>
-        <v>0</v>
+        <v>13.6049723756906</v>
       </c>
       <c r="I11" s="11">
         <f>アンサンブルimport!I8</f>
-        <v>0</v>
+        <v>13.6049723756906</v>
       </c>
       <c r="J11" s="11">
         <f>アンサンブルimport!J8</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K11" s="11">
         <f>アンサンブルimport!K8</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L11" s="11">
         <f>アンサンブルimport!L8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="11">
         <f>アンサンブルimport!B9</f>
         <v>0</v>
       </c>
       <c r="C12" s="11">
         <f>アンサンブルimport!C9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11">
         <f>アンサンブルimport!D9</f>
-        <v>0</v>
+        <v>13.622237569060699</v>
       </c>
       <c r="E12" s="11">
         <f>アンサンブルimport!E9</f>
-        <v>0</v>
+        <v>13.639502762430901</v>
       </c>
       <c r="F12" s="11">
         <f>アンサンブルimport!F9</f>
-        <v>0</v>
+        <v>13.639502762430901</v>
       </c>
       <c r="G12" s="11">
         <f>アンサンブルimport!G9</f>
-        <v>0</v>
+        <v>15.314226519337</v>
       </c>
       <c r="H12" s="11">
         <f>アンサンブルimport!H9</f>
-        <v>0</v>
+        <v>13.622237569060699</v>
       </c>
       <c r="I12" s="11">
         <f>アンサンブルimport!I9</f>
-        <v>0</v>
+        <v>13.622237569060699</v>
       </c>
       <c r="J12" s="11">
         <f>アンサンブルimport!J9</f>
-        <v>0</v>
+        <v>73.428867403314896</v>
       </c>
       <c r="K12" s="11">
         <f>アンサンブルimport!K9</f>
-        <v>0</v>
+        <v>72.876381215469607</v>
       </c>
       <c r="L12" s="11">
         <f>アンサンブルimport!L9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+        <v>72.876381215469607</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="11">
         <f>アンサンブルimport!B10</f>
         <v>0</v>
       </c>
       <c r="C13" s="11">
         <f>アンサンブルimport!C10</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="11">
         <f>アンサンブルimport!D10</f>
-        <v>0</v>
+        <v>12.379143646408799</v>
       </c>
       <c r="E13" s="11">
         <f>アンサンブルimport!E10</f>
-        <v>0</v>
+        <v>12.379143646408799</v>
       </c>
       <c r="F13" s="11">
         <f>アンサンブルimport!F10</f>
-        <v>0</v>
+        <v>12.379143646408799</v>
       </c>
       <c r="G13" s="11">
         <f>アンサンブルimport!G10</f>
-        <v>0</v>
+        <v>17.1270718232044</v>
       </c>
       <c r="H13" s="11">
         <f>アンサンブルimport!H10</f>
-        <v>0</v>
+        <v>13.104281767955801</v>
       </c>
       <c r="I13" s="11">
         <f>アンサンブルimport!I10</f>
-        <v>0</v>
+        <v>13.121546961325899</v>
       </c>
       <c r="J13" s="11">
         <f>アンサンブルimport!J10</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K13" s="11">
         <f>アンサンブルimport!K10</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L13" s="11">
         <f>アンサンブルimport!L10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="21" thickBot="1">
       <c r="B14" s="16">
         <f>アンサンブルimport!B11</f>
         <v>0</v>
       </c>
       <c r="C14" s="16">
         <f>アンサンブルimport!C11</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="16">
         <f>アンサンブルimport!D11</f>
-        <v>0</v>
+        <v>11.9129834254143</v>
       </c>
       <c r="E14" s="16">
         <f>アンサンブルimport!E11</f>
-        <v>0</v>
+        <v>11.9129834254143</v>
       </c>
       <c r="F14" s="16">
         <f>アンサンブルimport!F11</f>
-        <v>0</v>
+        <v>11.9129834254143</v>
       </c>
       <c r="G14" s="16">
         <f>アンサンブルimport!G11</f>
-        <v>0</v>
+        <v>12.1719613259668</v>
       </c>
       <c r="H14" s="16">
         <f>アンサンブルimport!H11</f>
-        <v>0</v>
+        <v>12.2064917127071</v>
       </c>
       <c r="I14" s="16">
         <f>アンサンブルimport!I11</f>
-        <v>0</v>
+        <v>12.2064917127071</v>
       </c>
       <c r="J14" s="16">
         <f>アンサンブルimport!J11</f>
-        <v>0</v>
+        <v>76.0531767955801</v>
       </c>
       <c r="K14" s="16">
         <f>アンサンブルimport!K11</f>
-        <v>0</v>
+        <v>76.0186464088397</v>
       </c>
       <c r="L14" s="16">
         <f>アンサンブルimport!L11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="32" t="s">
+        <v>76.0186464088397</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="22" thickTop="1" thickBot="1">
+      <c r="B15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="4">
         <f>AVERAGE(D5:D14)</f>
-        <v>0</v>
+        <v>12.088393437234902</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ref="E15:L15" si="0">AVERAGE(E5:E14)</f>
-        <v>0</v>
+        <v>12.090120254710291</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.093573293384321</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.013363456439787</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.70463764977276</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.709818102198929</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75.303436295222767</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74.560948607145164</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="34" t="s">
+        <v>74.617924043405083</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" thickBot="1"/>
+    <row r="18" spans="2:12">
+      <c r="B18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="35"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="38"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="2:12" ht="21" thickBot="1">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6" t="s">
         <v>0</v>
       </c>
@@ -11819,10 +12851,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="21" thickTop="1">
       <c r="B21" s="11">
         <f>アンサンブルimport!B12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="11">
         <f>アンサンブルimport!C12</f>
@@ -11830,539 +12862,539 @@
       </c>
       <c r="D21" s="11">
         <f>アンサンブルimport!D12</f>
-        <v>0</v>
+        <v>11.7078224831635</v>
       </c>
       <c r="E21" s="11">
         <f>アンサンブルimport!E12</f>
-        <v>0</v>
+        <v>11.6732861336556</v>
       </c>
       <c r="F21" s="11">
         <f>アンサンブルimport!F12</f>
-        <v>0</v>
+        <v>11.690554308409601</v>
       </c>
       <c r="G21" s="11">
         <f>アンサンブルimport!G12</f>
-        <v>0</v>
+        <v>14.9887756864099</v>
       </c>
       <c r="H21" s="11">
         <f>アンサンブルimport!H12</f>
-        <v>0</v>
+        <v>12.225867725781301</v>
       </c>
       <c r="I21" s="11">
         <f>アンサンブルimport!I12</f>
-        <v>0</v>
+        <v>12.225867725781301</v>
       </c>
       <c r="J21" s="11">
         <f>アンサンブルimport!J12</f>
-        <v>0</v>
+        <v>73.683301675012899</v>
       </c>
       <c r="K21" s="11">
         <f>アンサンブルimport!K12</f>
-        <v>0</v>
+        <v>75.151096529096804</v>
       </c>
       <c r="L21" s="11">
         <f>アンサンブルimport!L12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+        <v>75.151096529096804</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="11">
         <f>アンサンブルimport!B13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="11">
         <f>アンサンブルimport!C13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="11">
         <f>アンサンブルimport!D13</f>
-        <v>0</v>
+        <v>11.2070454152996</v>
       </c>
       <c r="E22" s="11">
         <f>アンサンブルimport!E13</f>
-        <v>0</v>
+        <v>11.2243135900535</v>
       </c>
       <c r="F22" s="11">
         <f>アンサンブルimport!F13</f>
-        <v>0</v>
+        <v>11.2243135900535</v>
       </c>
       <c r="G22" s="11">
         <f>アンサンブルimport!G13</f>
-        <v>0</v>
+        <v>11.604213434639901</v>
       </c>
       <c r="H22" s="11">
         <f>アンサンブルimport!H13</f>
-        <v>0</v>
+        <v>11.466068036608499</v>
       </c>
       <c r="I22" s="11">
         <f>アンサンブルimport!I13</f>
-        <v>0</v>
+        <v>11.466068036608499</v>
       </c>
       <c r="J22" s="11">
         <f>アンサンブルimport!J13</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="K22" s="11">
         <f>アンサンブルimport!K13</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="L22" s="11">
         <f>アンサンブルimport!L13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="11">
         <f>アンサンブルimport!B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="11">
         <f>アンサンブルimport!C14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11">
         <f>アンサンブルimport!D14</f>
-        <v>0</v>
+        <v>12.312208599551001</v>
       </c>
       <c r="E23" s="11">
         <f>アンサンブルimport!E14</f>
-        <v>0</v>
+        <v>12.312208599551001</v>
       </c>
       <c r="F23" s="11">
         <f>アンサンブルimport!F14</f>
-        <v>0</v>
+        <v>12.312208599551001</v>
       </c>
       <c r="G23" s="11">
         <f>アンサンブルimport!G14</f>
-        <v>0</v>
+        <v>15.3859437057503</v>
       </c>
       <c r="H23" s="11">
         <f>アンサンブルimport!H14</f>
-        <v>0</v>
+        <v>13.054740113969901</v>
       </c>
       <c r="I23" s="11">
         <f>アンサンブルimport!I14</f>
-        <v>0</v>
+        <v>13.054740113969901</v>
       </c>
       <c r="J23" s="11">
         <f>アンサンブルimport!J14</f>
-        <v>0</v>
+        <v>71.041270937661807</v>
       </c>
       <c r="K23" s="11">
         <f>アンサンブルimport!K14</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="L23" s="11">
         <f>アンサンブルimport!L14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="11">
         <f>アンサンブルimport!B15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="11">
         <f>アンサンブルimport!C15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11">
         <f>アンサンブルimport!D15</f>
-        <v>0</v>
+        <v>12.536694871351999</v>
       </c>
       <c r="E24" s="11">
         <f>アンサンブルimport!E15</f>
-        <v>0</v>
+        <v>12.519426696598099</v>
       </c>
       <c r="F24" s="11">
         <f>アンサンブルimport!F15</f>
-        <v>0</v>
+        <v>12.536694871351999</v>
       </c>
       <c r="G24" s="11">
         <f>アンサンブルimport!G15</f>
-        <v>0</v>
+        <v>14.4361940942842</v>
       </c>
       <c r="H24" s="11">
         <f>アンサンブルimport!H15</f>
-        <v>0</v>
+        <v>12.640303919875601</v>
       </c>
       <c r="I24" s="11">
         <f>アンサンブルimport!I15</f>
-        <v>0</v>
+        <v>12.640303919875601</v>
       </c>
       <c r="J24" s="11">
         <f>アンサンブルimport!J15</f>
-        <v>0</v>
+        <v>73.631497150751102</v>
       </c>
       <c r="K24" s="11">
         <f>アンサンブルimport!K15</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="L24" s="11">
         <f>アンサンブルimport!L15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="11">
         <f>アンサンブルimport!B16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="11">
         <f>アンサンブルimport!C16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="11">
         <f>アンサンブルimport!D16</f>
-        <v>0</v>
+        <v>11.897772405456699</v>
       </c>
       <c r="E25" s="11">
         <f>アンサンブルimport!E16</f>
-        <v>0</v>
+        <v>11.897772405456699</v>
       </c>
       <c r="F25" s="11">
         <f>アンサンブルimport!F16</f>
-        <v>0</v>
+        <v>11.897772405456699</v>
       </c>
       <c r="G25" s="11">
         <f>アンサンブルimport!G16</f>
-        <v>0</v>
+        <v>19.7202555689863</v>
       </c>
       <c r="H25" s="11">
         <f>アンサンブルimport!H16</f>
-        <v>0</v>
+        <v>14.7642894146088</v>
       </c>
       <c r="I25" s="11">
         <f>アンサンブルimport!I16</f>
-        <v>0</v>
+        <v>14.7642894146088</v>
       </c>
       <c r="J25" s="11">
         <f>アンサンブルimport!J16</f>
-        <v>0</v>
+        <v>69.867035054394705</v>
       </c>
       <c r="K25" s="11">
         <f>アンサンブルimport!K16</f>
-        <v>0</v>
+        <v>69.9706441029183</v>
       </c>
       <c r="L25" s="11">
         <f>アンサンブルimport!L16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+        <v>69.953375928164306</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="11">
         <f>アンサンブルimport!B17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="11">
         <f>アンサンブルimport!C17</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="11">
         <f>アンサンブルimport!D17</f>
-        <v>0</v>
+        <v>12.016574585635301</v>
       </c>
       <c r="E26" s="11">
         <f>アンサンブルimport!E17</f>
-        <v>0</v>
+        <v>12.016574585635301</v>
       </c>
       <c r="F26" s="11">
         <f>アンサンブルimport!F17</f>
-        <v>0</v>
+        <v>12.016574585635301</v>
       </c>
       <c r="G26" s="11">
         <f>アンサンブルimport!G17</f>
-        <v>0</v>
+        <v>13.0179558011049</v>
       </c>
       <c r="H26" s="11">
         <f>アンサンブルimport!H17</f>
-        <v>0</v>
+        <v>12.9143646408839</v>
       </c>
       <c r="I26" s="11">
         <f>アンサンブルimport!I17</f>
-        <v>0</v>
+        <v>12.9143646408839</v>
       </c>
       <c r="J26" s="11">
         <f>アンサンブルimport!J17</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K26" s="11">
         <f>アンサンブルimport!K17</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L26" s="11">
         <f>アンサンブルimport!L17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="11">
         <f>アンサンブルimport!B18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="11">
         <f>アンサンブルimport!C18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11">
         <f>アンサンブルimport!D18</f>
-        <v>0</v>
+        <v>12.4827348066298</v>
       </c>
       <c r="E27" s="11">
         <f>アンサンブルimport!E18</f>
-        <v>0</v>
+        <v>12.4827348066298</v>
       </c>
       <c r="F27" s="11">
         <f>アンサンブルimport!F18</f>
-        <v>0</v>
+        <v>12.4827348066298</v>
       </c>
       <c r="G27" s="11">
         <f>アンサンブルimport!G18</f>
-        <v>0</v>
+        <v>13.2941988950276</v>
       </c>
       <c r="H27" s="11">
         <f>アンサンブルimport!H18</f>
-        <v>0</v>
+        <v>12.603591160220899</v>
       </c>
       <c r="I27" s="11">
         <f>アンサンブルimport!I18</f>
-        <v>0</v>
+        <v>12.6553867403314</v>
       </c>
       <c r="J27" s="11">
         <f>アンサンブルimport!J18</f>
-        <v>0</v>
+        <v>73.9468232044198</v>
       </c>
       <c r="K27" s="11">
         <f>アンサンブルimport!K18</f>
-        <v>0</v>
+        <v>73.446132596685004</v>
       </c>
       <c r="L27" s="11">
         <f>アンサンブルimport!L18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+        <v>75.224447513812095</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="11">
         <f>アンサンブルimport!B19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="11">
         <f>アンサンブルimport!C19</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="11">
         <f>アンサンブルimport!D19</f>
-        <v>0</v>
+        <v>11.878453038673999</v>
       </c>
       <c r="E28" s="11">
         <f>アンサンブルimport!E19</f>
-        <v>0</v>
+        <v>11.878453038673999</v>
       </c>
       <c r="F28" s="11">
         <f>アンサンブルimport!F19</f>
-        <v>0</v>
+        <v>11.878453038673999</v>
       </c>
       <c r="G28" s="11">
         <f>アンサンブルimport!G19</f>
-        <v>0</v>
+        <v>23.049033149171201</v>
       </c>
       <c r="H28" s="11">
         <f>アンサンブルimport!H19</f>
-        <v>0</v>
+        <v>14.58908839779</v>
       </c>
       <c r="I28" s="11">
         <f>アンサンブルimport!I19</f>
-        <v>0</v>
+        <v>14.623618784530301</v>
       </c>
       <c r="J28" s="11">
         <f>アンサンブルimport!J19</f>
-        <v>0</v>
+        <v>69.233425414364604</v>
       </c>
       <c r="K28" s="11">
         <f>アンサンブルimport!K19</f>
-        <v>0</v>
+        <v>74.844613259668506</v>
       </c>
       <c r="L28" s="11">
         <f>アンサンブルimport!L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+        <v>74.861878453038599</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="11">
         <f>アンサンブルimport!B20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="11">
         <f>アンサンブルimport!C20</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11">
         <f>アンサンブルimport!D20</f>
-        <v>0</v>
+        <v>12.1719613259668</v>
       </c>
       <c r="E29" s="11">
         <f>アンサンブルimport!E20</f>
-        <v>0</v>
+        <v>12.1719613259668</v>
       </c>
       <c r="F29" s="11">
         <f>アンサンブルimport!F20</f>
-        <v>0</v>
+        <v>12.1719613259668</v>
       </c>
       <c r="G29" s="11">
         <f>アンサンブルimport!G20</f>
-        <v>0</v>
+        <v>12.828038674033101</v>
       </c>
       <c r="H29" s="11">
         <f>アンサンブルimport!H20</f>
-        <v>0</v>
+        <v>12.828038674033101</v>
       </c>
       <c r="I29" s="11">
         <f>アンサンブルimport!I20</f>
-        <v>0</v>
+        <v>12.828038674033101</v>
       </c>
       <c r="J29" s="11">
         <f>アンサンブルimport!J20</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K29" s="11">
         <f>アンサンブルimport!K20</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L29" s="11">
         <f>アンサンブルimport!L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="21" thickBot="1">
       <c r="B30" s="16">
         <f>アンサンブルimport!B21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="16">
         <f>アンサンブルimport!C21</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D30" s="16">
         <f>アンサンブルimport!D21</f>
-        <v>0</v>
+        <v>11.9647790055248</v>
       </c>
       <c r="E30" s="16">
         <f>アンサンブルimport!E21</f>
-        <v>0</v>
+        <v>11.982044198895</v>
       </c>
       <c r="F30" s="16">
         <f>アンサンブルimport!F21</f>
-        <v>0</v>
+        <v>11.982044198895</v>
       </c>
       <c r="G30" s="16">
         <f>アンサンブルimport!G21</f>
-        <v>0</v>
+        <v>15.2796961325966</v>
       </c>
       <c r="H30" s="16">
         <f>アンサンブルimport!H21</f>
-        <v>0</v>
+        <v>13.2251381215469</v>
       </c>
       <c r="I30" s="16">
         <f>アンサンブルimport!I21</f>
-        <v>0</v>
+        <v>13.2251381215469</v>
       </c>
       <c r="J30" s="16">
         <f>アンサンブルimport!J21</f>
-        <v>0</v>
+        <v>72.306629834254096</v>
       </c>
       <c r="K30" s="16">
         <f>アンサンブルimport!K21</f>
-        <v>0</v>
+        <v>73.895027624309293</v>
       </c>
       <c r="L30" s="16">
         <f>アンサンブルimport!L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="32" t="s">
+        <v>73.895027624309293</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="22" thickTop="1" thickBot="1">
+      <c r="B31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="4">
         <f>AVERAGE(D21:D30)</f>
-        <v>0</v>
+        <v>12.017604653725352</v>
       </c>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
-        <v>0</v>
+        <v>12.01587753811158</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31" si="1">AVERAGE(F21:F30)</f>
-        <v>0</v>
+        <v>12.019331173062371</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" ref="G31" si="2">AVERAGE(G21:G30)</f>
-        <v>0</v>
+        <v>15.360430514200402</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ref="H31" si="3">AVERAGE(H21:H30)</f>
-        <v>0</v>
+        <v>13.03114902053189</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" ref="I31" si="4">AVERAGE(I21:I30)</f>
-        <v>0</v>
+        <v>13.039781617216969</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" ref="J31" si="5">AVERAGE(J21:J30)</f>
-        <v>0</v>
+        <v>73.224523658353391</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" ref="K31" si="6">AVERAGE(K21:K30)</f>
-        <v>0</v>
+        <v>74.819987327926384</v>
       </c>
       <c r="L31" s="5">
         <f>AVERAGE(L21:L30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="34" t="s">
+        <v>74.997818521500704</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="21" thickBot="1"/>
+    <row r="34" spans="2:12">
+      <c r="B34" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28" t="s">
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="35"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30" t="s">
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="38"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
-    </row>
-    <row r="36" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="2:12" ht="21" thickBot="1">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="6" t="s">
         <v>0</v>
       </c>
@@ -12391,10 +13423,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:12" ht="21" thickTop="1">
       <c r="B37" s="11">
         <f>アンサンブルimport!B22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="11">
         <f>アンサンブルimport!C22</f>
@@ -12402,553 +13434,542 @@
       </c>
       <c r="D37" s="11">
         <f>アンサンブルimport!D22</f>
-        <v>0</v>
+        <v>11.794163356933099</v>
       </c>
       <c r="E37" s="11">
         <f>アンサンブルimport!E22</f>
-        <v>0</v>
+        <v>11.794163356933099</v>
       </c>
       <c r="F37" s="11">
         <f>アンサンブルimport!F22</f>
-        <v>0</v>
+        <v>11.794163356933099</v>
       </c>
       <c r="G37" s="11">
         <f>アンサンブルimport!G22</f>
-        <v>0</v>
+        <v>13.659126230357399</v>
       </c>
       <c r="H37" s="11">
         <f>アンサンブルimport!H22</f>
-        <v>0</v>
+        <v>12.605767570367799</v>
       </c>
       <c r="I37" s="11">
         <f>アンサンブルimport!I22</f>
-        <v>0</v>
+        <v>12.8820583664306</v>
       </c>
       <c r="J37" s="11">
         <f>アンサンブルimport!J22</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="K37" s="11">
         <f>アンサンブルimport!K22</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="L37" s="11">
         <f>アンサンブルimport!L22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
       <c r="B38" s="11">
         <f>アンサンブルimport!B23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="11">
         <f>アンサンブルimport!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="11">
         <f>アンサンブルimport!D23</f>
-        <v>0</v>
+        <v>11.6560179589017</v>
       </c>
       <c r="E38" s="11">
         <f>アンサンブルimport!E23</f>
-        <v>0</v>
+        <v>11.6560179589017</v>
       </c>
       <c r="F38" s="11">
         <f>アンサンブルimport!F23</f>
-        <v>0</v>
+        <v>11.6387497841478</v>
       </c>
       <c r="G38" s="11">
         <f>アンサンブルimport!G23</f>
-        <v>0</v>
+        <v>12.346744949058801</v>
       </c>
       <c r="H38" s="11">
         <f>アンサンブルimport!H23</f>
-        <v>0</v>
+        <v>12.312208599551001</v>
       </c>
       <c r="I38" s="11">
         <f>アンサンブルimport!I23</f>
-        <v>0</v>
+        <v>12.312208599551001</v>
       </c>
       <c r="J38" s="11">
         <f>アンサンブルimport!J23</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="K38" s="11">
         <f>アンサンブルimport!K23</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="L38" s="11">
         <f>アンサンブルimport!L23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
       <c r="B39" s="11">
         <f>アンサンブルimport!B24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="11">
         <f>アンサンブルimport!C24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="11">
         <f>アンサンブルimport!D24</f>
-        <v>0</v>
+        <v>11.8632360559488</v>
       </c>
       <c r="E39" s="11">
         <f>アンサンブルimport!E24</f>
-        <v>0</v>
+        <v>11.8632360559488</v>
       </c>
       <c r="F39" s="11">
         <f>アンサンブルimport!F24</f>
-        <v>0</v>
+        <v>11.8632360559488</v>
       </c>
       <c r="G39" s="11">
         <f>アンサンブルimport!G24</f>
-        <v>0</v>
+        <v>14.1253669487135</v>
       </c>
       <c r="H39" s="11">
         <f>アンサンブルimport!H24</f>
-        <v>0</v>
+        <v>14.0217579001899</v>
       </c>
       <c r="I39" s="11">
         <f>アンサンブルimport!I24</f>
-        <v>0</v>
+        <v>14.0217579001899</v>
       </c>
       <c r="J39" s="11">
         <f>アンサンブルimport!J24</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="K39" s="11">
         <f>アンサンブルimport!K24</f>
-        <v>0</v>
+        <v>76.187187014332494</v>
       </c>
       <c r="L39" s="11">
         <f>アンサンブルimport!L24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.187187014332494</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40" s="11">
         <f>アンサンブルimport!B25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" s="11">
         <f>アンサンブルimport!C25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" s="11">
         <f>アンサンブルimport!D25</f>
-        <v>0</v>
+        <v>12.208599551027399</v>
       </c>
       <c r="E40" s="11">
         <f>アンサンブルimport!E25</f>
-        <v>0</v>
+        <v>12.2431359005353</v>
       </c>
       <c r="F40" s="11">
         <f>アンサンブルimport!F25</f>
-        <v>0</v>
+        <v>12.225867725781301</v>
       </c>
       <c r="G40" s="11">
         <f>アンサンブルimport!G25</f>
-        <v>0</v>
+        <v>14.5916076670695</v>
       </c>
       <c r="H40" s="11">
         <f>アンサンブルimport!H25</f>
-        <v>0</v>
+        <v>12.208599551027399</v>
       </c>
       <c r="I40" s="11">
         <f>アンサンブルimport!I25</f>
-        <v>0</v>
+        <v>12.208599551027399</v>
       </c>
       <c r="J40" s="11">
         <f>アンサンブルimport!J25</f>
-        <v>0</v>
+        <v>72.232774995682902</v>
       </c>
       <c r="K40" s="11">
         <f>アンサンブルimport!K25</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="L40" s="11">
         <f>アンサンブルimport!L25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
       <c r="B41" s="11">
         <f>アンサンブルimport!B26</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" s="11">
         <f>アンサンブルimport!C26</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41" s="11">
         <f>アンサンブルimport!D26</f>
-        <v>0</v>
+        <v>11.068900017268099</v>
       </c>
       <c r="E41" s="11">
         <f>アンサンブルimport!E26</f>
-        <v>0</v>
+        <v>11.068900017268099</v>
       </c>
       <c r="F41" s="11">
         <f>アンサンブルimport!F26</f>
-        <v>0</v>
+        <v>11.068900017268099</v>
       </c>
       <c r="G41" s="11">
         <f>アンサンブルimport!G26</f>
-        <v>0</v>
+        <v>11.4315316871006</v>
       </c>
       <c r="H41" s="11">
         <f>アンサンブルimport!H26</f>
-        <v>0</v>
+        <v>11.4142635123467</v>
       </c>
       <c r="I41" s="11">
         <f>アンサンブルimport!I26</f>
-        <v>0</v>
+        <v>11.4142635123467</v>
       </c>
       <c r="J41" s="11">
         <f>アンサンブルimport!J26</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="K41" s="11">
         <f>アンサンブルimport!K26</f>
-        <v>0</v>
+        <v>76.1699188395786</v>
       </c>
       <c r="L41" s="11">
         <f>アンサンブルimport!L26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.1699188395786</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
       <c r="B42" s="11">
         <f>アンサンブルimport!B27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="11">
         <f>アンサンブルimport!C27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42" s="11">
         <f>アンサンブルimport!D27</f>
-        <v>0</v>
+        <v>12.2064917127071</v>
       </c>
       <c r="E42" s="11">
         <f>アンサンブルimport!E27</f>
-        <v>0</v>
+        <v>12.2237569060773</v>
       </c>
       <c r="F42" s="11">
         <f>アンサンブルimport!F27</f>
-        <v>0</v>
+        <v>12.2237569060773</v>
       </c>
       <c r="G42" s="11">
         <f>アンサンブルimport!G27</f>
-        <v>0</v>
+        <v>12.862569060773399</v>
       </c>
       <c r="H42" s="11">
         <f>アンサンブルimport!H27</f>
-        <v>0</v>
+        <v>12.551795580110401</v>
       </c>
       <c r="I42" s="11">
         <f>アンサンブルimport!I27</f>
-        <v>0</v>
+        <v>12.551795580110401</v>
       </c>
       <c r="J42" s="11">
         <f>アンサンブルimport!J27</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K42" s="11">
         <f>アンサンブルimport!K27</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L42" s="11">
         <f>アンサンブルimport!L27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43" s="11">
         <f>アンサンブルimport!B28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="11">
         <f>アンサンブルimport!C28</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11">
         <f>アンサンブルimport!D28</f>
-        <v>0</v>
+        <v>10.4281767955801</v>
       </c>
       <c r="E43" s="11">
         <f>アンサンブルimport!E28</f>
-        <v>0</v>
+        <v>10.4281767955801</v>
       </c>
       <c r="F43" s="11">
         <f>アンサンブルimport!F28</f>
-        <v>0</v>
+        <v>10.4281767955801</v>
       </c>
       <c r="G43" s="11">
         <f>アンサンブルimport!G28</f>
-        <v>0</v>
+        <v>11.291436464088299</v>
       </c>
       <c r="H43" s="11">
         <f>アンサンブルimport!H28</f>
-        <v>0</v>
+        <v>11.308701657458499</v>
       </c>
       <c r="I43" s="11">
         <f>アンサンブルimport!I28</f>
-        <v>0</v>
+        <v>11.325966850828699</v>
       </c>
       <c r="J43" s="11">
         <f>アンサンブルimport!J28</f>
-        <v>0</v>
+        <v>75.656077348066304</v>
       </c>
       <c r="K43" s="11">
         <f>アンサンブルimport!K28</f>
-        <v>0</v>
+        <v>75.863259668508206</v>
       </c>
       <c r="L43" s="11">
         <f>アンサンブルimport!L28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+        <v>75.863259668508206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
       <c r="B44" s="11">
         <f>アンサンブルimport!B29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="11">
         <f>アンサンブルimport!C29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D44" s="11">
         <f>アンサンブルimport!D29</f>
-        <v>0</v>
+        <v>12.4136740331491</v>
       </c>
       <c r="E44" s="11">
         <f>アンサンブルimport!E29</f>
-        <v>0</v>
+        <v>12.361878453038599</v>
       </c>
       <c r="F44" s="11">
         <f>アンサンブルimport!F29</f>
-        <v>0</v>
+        <v>12.361878453038599</v>
       </c>
       <c r="G44" s="11">
         <f>アンサンブルimport!G29</f>
-        <v>0</v>
+        <v>13.449585635359099</v>
       </c>
       <c r="H44" s="11">
         <f>アンサンブルimport!H29</f>
-        <v>0</v>
+        <v>13.4323204419889</v>
       </c>
       <c r="I44" s="11">
         <f>アンサンブルimport!I29</f>
-        <v>0</v>
+        <v>13.4323204419889</v>
       </c>
       <c r="J44" s="11">
         <f>アンサンブルimport!J29</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K44" s="11">
         <f>アンサンブルimport!K29</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L44" s="11">
         <f>アンサンブルimport!L29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
       <c r="B45" s="11">
         <f>アンサンブルimport!B30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="11">
         <f>アンサンブルimport!C30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D45" s="11">
         <f>アンサンブルimport!D30</f>
-        <v>0</v>
+        <v>11.256906077348001</v>
       </c>
       <c r="E45" s="11">
         <f>アンサンブルimport!E30</f>
-        <v>0</v>
+        <v>11.256906077348001</v>
       </c>
       <c r="F45" s="11">
         <f>アンサンブルimport!F30</f>
-        <v>0</v>
+        <v>11.256906077348001</v>
       </c>
       <c r="G45" s="11">
         <f>アンサンブルimport!G30</f>
-        <v>0</v>
+        <v>16.7299723756906</v>
       </c>
       <c r="H45" s="11">
         <f>アンサンブルimport!H30</f>
-        <v>0</v>
+        <v>14.0366022099447</v>
       </c>
       <c r="I45" s="11">
         <f>アンサンブルimport!I30</f>
-        <v>0</v>
+        <v>14.0366022099447</v>
       </c>
       <c r="J45" s="11">
         <f>アンサンブルimport!J30</f>
-        <v>0</v>
+        <v>73.497928176795497</v>
       </c>
       <c r="K45" s="11">
         <f>アンサンブルimport!K30</f>
-        <v>0</v>
+        <v>75.966850828729207</v>
       </c>
       <c r="L45" s="11">
         <f>アンサンブルimport!L30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>75.966850828729207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="21" thickBot="1">
       <c r="B46" s="16">
         <f>アンサンブルimport!B31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="16">
         <f>アンサンブルimport!C31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D46" s="16">
         <f>アンサンブルimport!D31</f>
-        <v>0</v>
+        <v>12.085635359116001</v>
       </c>
       <c r="E46" s="16">
         <f>アンサンブルimport!E31</f>
-        <v>0</v>
+        <v>12.068370165745799</v>
       </c>
       <c r="F46" s="16">
         <f>アンサンブルimport!F31</f>
-        <v>0</v>
+        <v>12.085635359116001</v>
       </c>
       <c r="G46" s="16">
         <f>アンサンブルimport!G31</f>
-        <v>0</v>
+        <v>13.691298342541399</v>
       </c>
       <c r="H46" s="16">
         <f>アンサンブルimport!H31</f>
-        <v>0</v>
+        <v>12.4654696132596</v>
       </c>
       <c r="I46" s="16">
         <f>アンサンブルimport!I31</f>
-        <v>0</v>
+        <v>12.4654696132596</v>
       </c>
       <c r="J46" s="16">
         <f>アンサンブルimport!J31</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="K46" s="16">
         <f>アンサンブルimport!K31</f>
-        <v>0</v>
+        <v>76.174033149171194</v>
       </c>
       <c r="L46" s="16">
         <f>アンサンブルimport!L31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="32" t="s">
+        <v>76.174033149171194</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="22" thickTop="1" thickBot="1">
+      <c r="B47" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="33"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="4">
         <f>AVERAGE(D37:D46)</f>
-        <v>0</v>
+        <v>11.698180091797941</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" ref="E47" si="7">AVERAGE(E37:E46)</f>
-        <v>0</v>
+        <v>11.696454168737681</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ref="F47" si="8">AVERAGE(F37:F46)</f>
-        <v>0</v>
+        <v>11.694727053123909</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" ref="G47" si="9">AVERAGE(G37:G46)</f>
-        <v>0</v>
+        <v>13.417923936075258</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" ref="H47" si="10">AVERAGE(H37:H46)</f>
-        <v>0</v>
+        <v>12.63574866362449</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" ref="I47" si="11">AVERAGE(I37:I46)</f>
-        <v>0</v>
+        <v>12.665104262567791</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" ref="J47" si="12">AVERAGE(J37:J46)</f>
-        <v>0</v>
+        <v>75.464035985063447</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" ref="K47" si="13">AVERAGE(K37:K46)</f>
-        <v>0</v>
+        <v>76.125360866690571</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" ref="L47" si="14">AVERAGE(L37:L46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="38" t="s">
+        <v>76.125360866690571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
       <c r="D50">
         <f>AVERAGE(D15,D31,D47)</f>
-        <v>0</v>
+        <v>11.934726060919397</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:L50" si="15">AVERAGE(E15,E31,E47)</f>
-        <v>0</v>
+        <v>11.934150653853186</v>
       </c>
       <c r="F50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11.935877173190201</v>
       </c>
       <c r="G50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>14.597239302238483</v>
       </c>
       <c r="H50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>13.123845111309713</v>
       </c>
       <c r="I50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>13.138234660661231</v>
       </c>
       <c r="J50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>74.663998646213201</v>
       </c>
       <c r="K50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>75.168765600587378</v>
       </c>
       <c r="L50">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>75.247034477198781</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A50:C50"/>
     <mergeCell ref="G18:L18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:L19"/>
@@ -12960,6 +13981,17 @@
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="D18:F19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12968,21 +14000,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="21" thickBot="1"/>
+    <row r="2" spans="2:6" ht="21" thickBot="1">
       <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
@@ -12995,7 +14027,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="21" thickTop="1">
       <c r="B3" s="11">
         <f>単一import!B2</f>
         <v>0</v>
@@ -13006,12 +14038,12 @@
       </c>
       <c r="D3" s="11">
         <f>単一import!D2</f>
-        <v>14.522534968053799</v>
+        <v>11.897772405456699</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" s="11">
         <f>単一import!B3</f>
         <v>0</v>
@@ -13022,12 +14054,12 @@
       </c>
       <c r="D4" s="11">
         <f>単一import!D3</f>
-        <v>13.572785356587801</v>
+        <v>12.346744949058801</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" s="11">
         <f>単一import!B4</f>
         <v>0</v>
@@ -13038,12 +14070,12 @@
       </c>
       <c r="D5" s="11">
         <f>単一import!D4</f>
-        <v>15.3859437057503</v>
+        <v>12.018649628734201</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6">
       <c r="B6" s="11">
         <f>単一import!B5</f>
         <v>0</v>
@@ -13054,12 +14086,12 @@
       </c>
       <c r="D6" s="11">
         <f>単一import!D5</f>
-        <v>13.175617337247401</v>
+        <v>11.2243135900535</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6">
       <c r="B7" s="11">
         <f>単一import!B6</f>
         <v>0</v>
@@ -13070,12 +14102,12 @@
       </c>
       <c r="D7" s="11">
         <f>単一import!D6</f>
-        <v>13.8318079778967</v>
+        <v>12.208599551027399</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="B8" s="11">
         <f>単一import!B7</f>
         <v>0</v>
@@ -13086,12 +14118,12 @@
       </c>
       <c r="D8" s="11">
         <f>単一import!D7</f>
-        <v>13.5531767955801</v>
+        <v>11.360497237569</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="B9" s="11">
         <f>単一import!B8</f>
         <v>0</v>
@@ -13102,12 +14134,12 @@
       </c>
       <c r="D9" s="11">
         <f>単一import!D8</f>
-        <v>14.071132596685</v>
+        <v>11.9129834254143</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6">
       <c r="B10" s="11">
         <f>単一import!B9</f>
         <v>0</v>
@@ -13118,12 +14150,12 @@
       </c>
       <c r="D10" s="11">
         <f>単一import!D9</f>
-        <v>14.5372928176795</v>
+        <v>13.4323204419889</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6">
       <c r="B11" s="11">
         <f>単一import!B10</f>
         <v>0</v>
@@ -13134,12 +14166,12 @@
       </c>
       <c r="D11" s="11">
         <f>単一import!D10</f>
-        <v>12.638121546961299</v>
+        <v>12.379143646408799</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" ht="21" thickBot="1">
       <c r="B12" s="16">
         <f>単一import!B11</f>
         <v>0</v>
@@ -13150,25 +14182,25 @@
       </c>
       <c r="D12" s="16">
         <f>単一import!D11</f>
-        <v>13.0352209944751</v>
+        <v>11.8611878453038</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="32" t="s">
+    <row r="13" spans="2:6" ht="22" thickTop="1" thickBot="1">
+      <c r="B13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="5">
         <f>AVERAGE(D3:D12)</f>
-        <v>13.8323634096917</v>
+        <v>12.064221272101541</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="15" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" ht="21" thickBot="1"/>
+    <row r="16" spans="2:6" ht="21" thickBot="1">
       <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
@@ -13179,7 +14211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="21" thickTop="1">
       <c r="B17" s="11">
         <f>単一import!B12</f>
         <v>1</v>
@@ -13190,10 +14222,10 @@
       </c>
       <c r="D17" s="11">
         <f>単一import!D12</f>
-        <v>11.9323087549646</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.7078224831635</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="11">
         <f>単一import!B13</f>
         <v>1</v>
@@ -13204,10 +14236,10 @@
       </c>
       <c r="D18" s="11">
         <f>単一import!D13</f>
-        <v>12.8129856674149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.2243135900535</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="11">
         <f>単一import!B14</f>
         <v>1</v>
@@ -13218,10 +14250,10 @@
       </c>
       <c r="D19" s="11">
         <f>単一import!D14</f>
-        <v>12.1567950267656</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.294940424797099</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="11">
         <f>単一import!B15</f>
         <v>1</v>
@@ -13232,10 +14264,10 @@
       </c>
       <c r="D20" s="11">
         <f>単一import!D15</f>
-        <v>12.0359178034881</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.536694871351999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="11">
         <f>単一import!B16</f>
         <v>1</v>
@@ -13246,10 +14278,10 @@
       </c>
       <c r="D21" s="11">
         <f>単一import!D16</f>
-        <v>12.104990502503799</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.794163356933099</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="11">
         <f>単一import!B17</f>
         <v>1</v>
@@ -13260,10 +14292,10 @@
       </c>
       <c r="D22" s="11">
         <f>単一import!D17</f>
-        <v>12.7589779005524</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.9647790055248</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="11">
         <f>単一import!B18</f>
         <v>1</v>
@@ -13274,10 +14306,10 @@
       </c>
       <c r="D23" s="11">
         <f>単一import!D18</f>
-        <v>12.379143646408799</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+        <v>12.361878453038599</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="11">
         <f>単一import!B19</f>
         <v>1</v>
@@ -13288,10 +14320,10 @@
       </c>
       <c r="D24" s="11">
         <f>単一import!D19</f>
-        <v>12.7071823204419</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.878453038673999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="11">
         <f>単一import!B20</f>
         <v>1</v>
@@ -13302,10 +14334,10 @@
       </c>
       <c r="D25" s="11">
         <f>単一import!D20</f>
-        <v>12.810773480662901</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>12.1719613259668</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="21" thickBot="1">
       <c r="B26" s="16">
         <f>単一import!B21</f>
         <v>1</v>
@@ -13316,21 +14348,21 @@
       </c>
       <c r="D26" s="16">
         <f>単一import!D21</f>
-        <v>12.4309392265193</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="32" t="s">
+        <v>11.999309392265101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="22" thickTop="1" thickBot="1">
+      <c r="B27" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="5">
         <f>AVERAGE(D17:D26)</f>
-        <v>12.413001432972228</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11.993431594176851</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="21" thickBot="1"/>
+    <row r="30" spans="2:4" ht="21" thickBot="1">
       <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
@@ -13341,7 +14373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" ht="21" thickTop="1">
       <c r="B31" s="11">
         <f>単一import!B22</f>
         <v>2</v>
@@ -13352,10 +14384,10 @@
       </c>
       <c r="D31" s="11">
         <f>単一import!D22</f>
-        <v>12.795717492661</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+        <v>11.7423588326713</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="11">
         <f>単一import!B23</f>
         <v>2</v>
@@ -13366,10 +14398,10 @@
       </c>
       <c r="D32" s="11">
         <f>単一import!D23</f>
-        <v>12.1222586772578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.690554308409601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="B33" s="11">
         <f>単一import!B24</f>
         <v>2</v>
@@ -13380,10 +14412,10 @@
       </c>
       <c r="D33" s="11">
         <f>単一import!D24</f>
-        <v>12.761181143153101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.8114315316871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="B34" s="11">
         <f>単一import!B25</f>
         <v>2</v>
@@ -13394,10 +14426,10 @@
       </c>
       <c r="D34" s="11">
         <f>単一import!D25</f>
-        <v>11.776895182179199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.018649628734201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="B35" s="11">
         <f>単一import!B26</f>
         <v>2</v>
@@ -13408,10 +14440,10 @@
       </c>
       <c r="D35" s="11">
         <f>単一import!D26</f>
-        <v>12.761181143153101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11.068900017268099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="B36" s="11">
         <f>単一import!B27</f>
         <v>2</v>
@@ -13422,10 +14454,10 @@
       </c>
       <c r="D36" s="11">
         <f>単一import!D27</f>
-        <v>12.310082872928101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.2064917127071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="B37" s="11">
         <f>単一import!B28</f>
         <v>2</v>
@@ -13436,10 +14468,10 @@
       </c>
       <c r="D37" s="11">
         <f>単一import!D28</f>
-        <v>13.1560773480662</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>10.4109116022099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="B38" s="11">
         <f>単一import!B29</f>
         <v>2</v>
@@ -13450,10 +14482,10 @@
       </c>
       <c r="D38" s="11">
         <f>単一import!D29</f>
-        <v>13.121546961325899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12.310082872928101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="B39" s="11">
         <f>単一import!B30</f>
         <v>2</v>
@@ -13464,10 +14496,10 @@
       </c>
       <c r="D39" s="11">
         <f>単一import!D30</f>
-        <v>12.7935082872928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11.274171270718201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21" thickBot="1">
       <c r="B40" s="16">
         <f>単一import!B31</f>
         <v>2</v>
@@ -13478,28 +14510,28 @@
       </c>
       <c r="D40" s="16">
         <f>単一import!D31</f>
-        <v>13.829419889502701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="32" t="s">
+        <v>12.1029005524861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="22" thickTop="1" thickBot="1">
+      <c r="B41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="5">
         <f>AVERAGE(D31:D40)</f>
-        <v>12.742786899751991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="38" t="s">
+        <v>11.663645232981972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44">
         <f>AVERAGE(D41,D27,D13)</f>
-        <v>12.996050580805308</v>
+        <v>11.907099366420121</v>
       </c>
     </row>
   </sheetData>
@@ -13516,66 +14548,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
+    <row r="2" spans="1:12" ht="21" thickBot="1"/>
+    <row r="3" spans="1:12">
+      <c r="B3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="40"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" s="45"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="41"/>
+    <row r="5" spans="1:12" ht="21" thickBot="1">
+      <c r="B5" s="46"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -13605,181 +14637,181 @@
       </c>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="22" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3">
         <f>'3 x 10CV 単一識別器用'!D44</f>
-        <v>12.996050580805308</v>
+        <v>11.907099366420121</v>
       </c>
       <c r="C6" s="1">
         <f>'3 x 10CV アンサンブル用'!D50</f>
-        <v>0</v>
+        <v>11.934726060919397</v>
       </c>
       <c r="D6" s="19">
         <f>'3 x 10CV アンサンブル用'!E50</f>
-        <v>0</v>
+        <v>11.934150653853186</v>
       </c>
       <c r="E6" s="19">
         <f>'3 x 10CV アンサンブル用'!F50</f>
-        <v>0</v>
+        <v>11.935877173190201</v>
       </c>
       <c r="F6" s="19">
         <f>'3 x 10CV アンサンブル用'!G50</f>
-        <v>0</v>
+        <v>14.597239302238483</v>
       </c>
       <c r="G6" s="19">
         <f>'3 x 10CV アンサンブル用'!H50</f>
-        <v>0</v>
+        <v>13.123845111309713</v>
       </c>
       <c r="H6" s="19">
         <f>'3 x 10CV アンサンブル用'!I50</f>
-        <v>0</v>
+        <v>13.138234660661231</v>
       </c>
       <c r="I6" s="19">
         <f>'3 x 10CV アンサンブル用'!J50</f>
-        <v>0</v>
+        <v>74.663998646213201</v>
       </c>
       <c r="J6" s="19">
         <f>'3 x 10CV アンサンブル用'!K50</f>
-        <v>0</v>
+        <v>75.168765600587378</v>
       </c>
       <c r="K6" s="20">
         <f>'3 x 10CV アンサンブル用'!L50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>75.247034477198781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="21">
         <f xml:space="preserve"> (100 - B6)</f>
-        <v>87.003949419194697</v>
+        <v>88.092900633579873</v>
       </c>
       <c r="C7" s="21">
         <f t="shared" ref="C7:K7" si="0" xml:space="preserve"> (100 - C6)</f>
-        <v>100</v>
+        <v>88.065273939080598</v>
       </c>
       <c r="D7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.06584934614682</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.064122826809793</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>85.402760697761522</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.87615488869028</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.861765339338774</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>25.336001353786799</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>24.831234399412622</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>24.752965522801219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IF(B6 = MIN($B$6:$K$6),"min","")</f>
-        <v/>
+        <v>min</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" ref="C8:K8" si="1">IF(C6 = MIN($B$6:$K$6),"min","")</f>
-        <v>min</v>
+        <v/>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
+        <v/>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>min</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ref="B9:K9" si="2">RANK(B6,$B$6:$K$6,1)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -13797,55 +14829,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" activeCellId="1" sqref="G5 F13"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68:O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="15" width="10.6640625" style="22"/>
+    <col min="6" max="15" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F2" s="42" t="s">
+    <row r="1" spans="1:15" ht="21" thickBot="1"/>
+    <row r="2" spans="1:15">
+      <c r="F2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F3" s="43"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3" s="48"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="44"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" thickBot="1">
+      <c r="F4" s="49"/>
       <c r="G4" s="23" t="s">
         <v>0</v>
       </c>
@@ -13874,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21" thickTop="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13921,7 +14953,7 @@
         <v>70.639077154788851</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="D6" t="s">
         <v>25</v>
       </c>
@@ -13959,7 +14991,7 @@
         <v>70.626731475776509</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -13997,7 +15029,7 @@
         <v>70.642459897913383</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="D8" t="s">
         <v>31</v>
       </c>
@@ -14035,7 +15067,7 @@
         <v>70.641774590895849</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -14076,7 +15108,7 @@
         <v>28.127276064256293</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="D10" t="s">
         <v>25</v>
       </c>
@@ -14114,7 +15146,7 @@
         <v>27.909820361980792</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="D11" t="s">
         <v>31</v>
       </c>
@@ -14152,7 +15184,7 @@
         <v>30.636295568662035</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="D12" t="s">
         <v>31</v>
       </c>
@@ -14190,7 +15222,7 @@
         <v>29.94849679425721</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -14234,7 +15266,7 @@
         <v>70.657584263252829</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -14272,7 +15304,7 @@
         <v>70.632915725337213</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -14310,7 +15342,7 @@
         <v>70.642460038836077</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -14348,7 +15380,7 @@
         <v>70.643145345853625</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -14389,7 +15421,7 @@
         <v>27.448336762523027</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -14427,7 +15459,7 @@
         <v>27.463888862056436</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="D19" t="s">
         <v>31</v>
       </c>
@@ -14465,7 +15497,7 @@
         <v>28.655830608746129</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -14503,7 +15535,7 @@
         <v>28.663300465763726</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -14550,7 +15582,7 @@
         <v>70.614385796764154</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="D22" t="s">
         <v>25</v>
       </c>
@@ -14588,7 +15620,7 @@
         <v>70.63905433467977</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15">
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -14626,7 +15658,7 @@
         <v>70.641089283878301</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -14664,7 +15696,7 @@
         <v>70.640403976860753</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -14705,7 +15737,7 @@
         <v>27.578315929793419</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="D26" t="s">
         <v>25</v>
       </c>
@@ -14743,7 +15775,7 @@
         <v>27.464404045477849</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="D27" t="s">
         <v>31</v>
       </c>
@@ -14781,7 +15813,7 @@
         <v>29.475363812297857</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="D28" t="s">
         <v>31</v>
       </c>
@@ -14819,7 +15851,7 @@
         <v>28.924550478881827</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -14863,7 +15895,7 @@
         <v>70.614385796764154</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15">
       <c r="D30" t="s">
         <v>25</v>
       </c>
@@ -14901,7 +15933,7 @@
         <v>70.620570046324872</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15">
       <c r="D31" t="s">
         <v>31</v>
       </c>
@@ -14939,7 +15971,7 @@
         <v>70.642460179758757</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15">
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -14977,7 +16009,7 @@
         <v>70.641774872741209</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -15018,7 +16050,7 @@
         <v>26.449001671126283</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15">
       <c r="D34" t="s">
         <v>25</v>
       </c>
@@ -15056,7 +16088,7 @@
         <v>27.174347729490094</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15">
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -15094,7 +16126,7 @@
         <v>27.638155634115734</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15">
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -15132,7 +16164,7 @@
         <v>28.369109640348157</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -15179,7 +16211,7 @@
         <v>70.614397206818694</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -15220,7 +16252,7 @@
         <v>70.632904315282673</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -15261,7 +16293,7 @@
         <v>70.639718387997846</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -15302,7 +16334,7 @@
         <v>70.640403976860753</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27" t="s">
@@ -15345,7 +16377,7 @@
         <v>27.412418818362468</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -15386,7 +16418,7 @@
         <v>27.246594154600146</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -15427,7 +16459,7 @@
         <v>28.846854425470696</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -15468,7 +16500,7 @@
         <v>28.434203483973576</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15">
       <c r="A45" s="27"/>
       <c r="B45" s="27" t="s">
         <v>34</v>
@@ -15513,7 +16545,7 @@
         <v>70.620581456379412</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -15554,7 +16586,7 @@
         <v>70.614408616873234</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -15595,7 +16627,7 @@
         <v>70.64383051194848</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -15636,7 +16668,7 @@
         <v>70.644516100811387</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27" t="s">
@@ -15679,7 +16711,7 @@
         <v>25.65159433169444</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -15720,7 +16752,7 @@
         <v>26.09191516217011</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -15761,7 +16793,7 @@
         <v>25.65159433169444</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -15802,7 +16834,7 @@
         <v>26.401850719809445</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15">
       <c r="A53" s="27" t="s">
         <v>38</v>
       </c>
@@ -15818,8 +16850,38 @@
       <c r="E53" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F53" s="22">
+        <v>83.616838958490277</v>
+      </c>
+      <c r="G53" s="22">
+        <v>84.480317655918441</v>
+      </c>
+      <c r="H53" s="22">
+        <v>84.474156226466803</v>
+      </c>
+      <c r="I53" s="22">
+        <v>84.474156226466803</v>
+      </c>
+      <c r="J53" s="22">
+        <v>83.826692681591069</v>
+      </c>
+      <c r="K53" s="22">
+        <v>83.826669861481975</v>
+      </c>
+      <c r="L53" s="22">
+        <v>83.826658451427448</v>
+      </c>
+      <c r="M53" s="22">
+        <v>70.626720065721969</v>
+      </c>
+      <c r="N53" s="22">
+        <v>70.651422833801192</v>
+      </c>
+      <c r="O53" s="22">
+        <v>70.65759567330737</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -15829,8 +16891,38 @@
       <c r="E54" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F54" s="22">
+        <v>83.616838958490277</v>
+      </c>
+      <c r="G54" s="22">
+        <v>84.480397526300223</v>
+      </c>
+      <c r="H54" s="22">
+        <v>84.468063257342422</v>
+      </c>
+      <c r="I54" s="22">
+        <v>84.468063257342422</v>
+      </c>
+      <c r="J54" s="22">
+        <v>84.165742452248963</v>
+      </c>
+      <c r="K54" s="22">
+        <v>84.196549599507136</v>
+      </c>
+      <c r="L54" s="22">
+        <v>84.171892471646061</v>
+      </c>
+      <c r="M54" s="22">
+        <v>70.62674288583105</v>
+      </c>
+      <c r="N54" s="22">
+        <v>70.632915725337213</v>
+      </c>
+      <c r="O54" s="22">
+        <v>70.645238584240488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -15840,8 +16932,38 @@
       <c r="E55" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F55" s="22">
+        <v>85.974031387653326</v>
+      </c>
+      <c r="G55" s="22">
+        <v>86.394839067421074</v>
+      </c>
+      <c r="H55" s="22">
+        <v>86.396209681456156</v>
+      </c>
+      <c r="I55" s="22">
+        <v>86.394839067421074</v>
+      </c>
+      <c r="J55" s="22">
+        <v>85.032344715602278</v>
+      </c>
+      <c r="K55" s="22">
+        <v>85.078264936226333</v>
+      </c>
+      <c r="L55" s="22">
+        <v>85.061816299501118</v>
+      </c>
+      <c r="M55" s="22">
+        <v>70.643145486776305</v>
+      </c>
+      <c r="N55" s="22">
+        <v>70.640403835938073</v>
+      </c>
+      <c r="O55" s="22">
+        <v>70.641774590895849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -15851,8 +16973,38 @@
       <c r="E56" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F56" s="22">
+        <v>85.974031387653326</v>
+      </c>
+      <c r="G56" s="22">
+        <v>86.382501004496959</v>
+      </c>
+      <c r="H56" s="22">
+        <v>86.383871759454721</v>
+      </c>
+      <c r="I56" s="22">
+        <v>86.382501145419624</v>
+      </c>
+      <c r="J56" s="22">
+        <v>85.532669006885186</v>
+      </c>
+      <c r="K56" s="22">
+        <v>85.606000944520261</v>
+      </c>
+      <c r="L56" s="22">
+        <v>85.588866718932124</v>
+      </c>
+      <c r="M56" s="22">
+        <v>70.641774731818529</v>
+      </c>
+      <c r="N56" s="22">
+        <v>70.641774731818529</v>
+      </c>
+      <c r="O56" s="22">
+        <v>70.640403976860753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27" t="s">
@@ -15864,8 +17016,38 @@
       <c r="E57" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F57" s="22">
+        <v>85.661584060224996</v>
+      </c>
+      <c r="G57" s="22">
+        <v>86.744153473141282</v>
+      </c>
+      <c r="H57" s="22">
+        <v>86.76487350637062</v>
+      </c>
+      <c r="I57" s="22">
+        <v>86.842545456887251</v>
+      </c>
+      <c r="J57" s="22">
+        <v>86.050016260476781</v>
+      </c>
+      <c r="K57" s="22">
+        <v>86.350488941265908</v>
+      </c>
+      <c r="L57" s="22">
+        <v>86.298640559746829</v>
+      </c>
+      <c r="M57" s="22">
+        <v>26.30359115043683</v>
+      </c>
+      <c r="N57" s="22">
+        <v>26.158599216277267</v>
+      </c>
+      <c r="O57" s="22">
+        <v>26.231095183357027</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -15875,8 +17057,38 @@
       <c r="E58" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F58" s="22">
+        <v>85.661584060224996</v>
+      </c>
+      <c r="G58" s="22">
+        <v>86.6872176553359</v>
+      </c>
+      <c r="H58" s="22">
+        <v>86.795985755178449</v>
+      </c>
+      <c r="I58" s="22">
+        <v>86.852929622724787</v>
+      </c>
+      <c r="J58" s="22">
+        <v>86.526601173974271</v>
+      </c>
+      <c r="K58" s="22">
+        <v>86.640625754663262</v>
+      </c>
+      <c r="L58" s="22">
+        <v>86.666529821070412</v>
+      </c>
+      <c r="M58" s="22">
+        <v>26.433127581954452</v>
+      </c>
+      <c r="N58" s="22">
+        <v>26.319143249970267</v>
+      </c>
+      <c r="O58" s="22">
+        <v>26.345031216895464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -15886,8 +17098,38 @@
       <c r="E59" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F59" s="22">
+        <v>87.315324841239374</v>
+      </c>
+      <c r="G59" s="22">
+        <v>87.941506661762929</v>
+      </c>
+      <c r="H59" s="22">
+        <v>88.033021329535018</v>
+      </c>
+      <c r="I59" s="22">
+        <v>88.038777586545237</v>
+      </c>
+      <c r="J59" s="22">
+        <v>86.939468448691457</v>
+      </c>
+      <c r="K59" s="22">
+        <v>87.23587603231411</v>
+      </c>
+      <c r="L59" s="22">
+        <v>87.188683708733322</v>
+      </c>
+      <c r="M59" s="22">
+        <v>26.635626287759081</v>
+      </c>
+      <c r="N59" s="22">
+        <v>26.460655135628357</v>
+      </c>
+      <c r="O59" s="22">
+        <v>26.519360072609075</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -15897,8 +17139,38 @@
       <c r="E60" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F60" s="22">
+        <v>87.315324841239374</v>
+      </c>
+      <c r="G60" s="22">
+        <v>87.951289873821523</v>
+      </c>
+      <c r="H60" s="22">
+        <v>88.03014429420395</v>
+      </c>
+      <c r="I60" s="22">
+        <v>88.039353888026582</v>
+      </c>
+      <c r="J60" s="22">
+        <v>87.387823249577963</v>
+      </c>
+      <c r="K60" s="22">
+        <v>87.545519966048843</v>
+      </c>
+      <c r="L60" s="22">
+        <v>87.547823383143964</v>
+      </c>
+      <c r="M60" s="22">
+        <v>26.648288423358451</v>
+      </c>
+      <c r="N60" s="22">
+        <v>26.55735393286659</v>
+      </c>
+      <c r="O60" s="22">
+        <v>26.591312092683395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="27"/>
       <c r="B61" s="27" t="s">
         <v>34</v>
@@ -15912,8 +17184,38 @@
       <c r="E61" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F61" s="22">
+        <v>84.560587389607775</v>
+      </c>
+      <c r="G61" s="22">
+        <v>84.628442983957513</v>
+      </c>
+      <c r="H61" s="22">
+        <v>84.628442983957513</v>
+      </c>
+      <c r="I61" s="22">
+        <v>84.628454394012053</v>
+      </c>
+      <c r="J61" s="22">
+        <v>84.110278177129743</v>
+      </c>
+      <c r="K61" s="22">
+        <v>84.122623856142084</v>
+      </c>
+      <c r="L61" s="22">
+        <v>84.116451016635907</v>
+      </c>
+      <c r="M61" s="22">
+        <v>70.595867278245635</v>
+      </c>
+      <c r="N61" s="22">
+        <v>70.60820154720345</v>
+      </c>
+      <c r="O61" s="22">
+        <v>70.614374386709613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -15923,8 +17225,38 @@
       <c r="E62" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F62" s="22">
+        <v>84.560587389607775</v>
+      </c>
+      <c r="G62" s="22">
+        <v>84.66545720088547</v>
+      </c>
+      <c r="H62" s="22">
+        <v>84.653122931927669</v>
+      </c>
+      <c r="I62" s="22">
+        <v>84.659307181488373</v>
+      </c>
+      <c r="J62" s="22">
+        <v>84.122589625978463</v>
+      </c>
+      <c r="K62" s="22">
+        <v>84.202813719449622</v>
+      </c>
+      <c r="L62" s="22">
+        <v>84.202813719449622</v>
+      </c>
+      <c r="M62" s="22">
+        <v>70.602028707697272</v>
+      </c>
+      <c r="N62" s="22">
+        <v>70.602040117751812</v>
+      </c>
+      <c r="O62" s="22">
+        <v>70.602028707697272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -15934,8 +17266,38 @@
       <c r="E63" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F63" s="22">
+        <v>86.319463328084282</v>
+      </c>
+      <c r="G63" s="22">
+        <v>86.315351626901716</v>
+      </c>
+      <c r="H63" s="22">
+        <v>86.317407266108972</v>
+      </c>
+      <c r="I63" s="22">
+        <v>86.322204978922528</v>
+      </c>
+      <c r="J63" s="22">
+        <v>85.244115153224726</v>
+      </c>
+      <c r="K63" s="22">
+        <v>85.266731553107832</v>
+      </c>
+      <c r="L63" s="22">
+        <v>85.266046246090298</v>
+      </c>
+      <c r="M63" s="22">
+        <v>70.642459897913383</v>
+      </c>
+      <c r="N63" s="22">
+        <v>70.643145345853611</v>
+      </c>
+      <c r="O63" s="22">
+        <v>70.643145204930931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -15945,8 +17307,38 @@
       <c r="E64" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64" s="22">
+        <v>86.319463328084282</v>
+      </c>
+      <c r="G64" s="22">
+        <v>86.324260759052464</v>
+      </c>
+      <c r="H64" s="22">
+        <v>86.324946206992706</v>
+      </c>
+      <c r="I64" s="22">
+        <v>86.323576156648357</v>
+      </c>
+      <c r="J64" s="22">
+        <v>85.243431537279406</v>
+      </c>
+      <c r="K64" s="22">
+        <v>85.321561187728008</v>
+      </c>
+      <c r="L64" s="22">
+        <v>85.320875598865101</v>
+      </c>
+      <c r="M64" s="22">
+        <v>70.643145345853625</v>
+      </c>
+      <c r="N64" s="22">
+        <v>70.641774590895849</v>
+      </c>
+      <c r="O64" s="22">
+        <v>70.643145486776305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27" t="s">
@@ -15958,8 +17350,38 @@
       <c r="E65" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65" s="22">
+        <v>86.428249438933094</v>
+      </c>
+      <c r="G65" s="22">
+        <v>86.386825471956357</v>
+      </c>
+      <c r="H65" s="22">
+        <v>86.386833521697312</v>
+      </c>
+      <c r="I65" s="22">
+        <v>86.386825471956357</v>
+      </c>
+      <c r="J65" s="22">
+        <v>84.325431707607692</v>
+      </c>
+      <c r="K65" s="22">
+        <v>85.516785319848452</v>
+      </c>
+      <c r="L65" s="22">
+        <v>85.516785319848452</v>
+      </c>
+      <c r="M65" s="22">
+        <v>25.31472072228722</v>
+      </c>
+      <c r="N65" s="22">
+        <v>24.532261751816876</v>
+      </c>
+      <c r="O65" s="22">
+        <v>24.53225370207592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -15969,8 +17391,38 @@
       <c r="E66" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66" s="22">
+        <v>86.428249438933094</v>
+      </c>
+      <c r="G66" s="22">
+        <v>86.376457405600732</v>
+      </c>
+      <c r="H66" s="22">
+        <v>86.381641438778544</v>
+      </c>
+      <c r="I66" s="22">
+        <v>86.386809372474431</v>
+      </c>
+      <c r="J66" s="22">
+        <v>83.978278578995372</v>
+      </c>
+      <c r="K66" s="22">
+        <v>85.345921518245575</v>
+      </c>
+      <c r="L66" s="22">
+        <v>85.351105551423387</v>
+      </c>
+      <c r="M66" s="22">
+        <v>25.557983894078333</v>
+      </c>
+      <c r="N66" s="22">
+        <v>24.703318747202758</v>
+      </c>
+      <c r="O66" s="22">
+        <v>24.646318531469703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -15980,8 +17432,38 @@
       <c r="E67" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67" s="22">
+        <v>88.092900633579873</v>
+      </c>
+      <c r="G67" s="22">
+        <v>88.064698432634927</v>
+      </c>
+      <c r="H67" s="22">
+        <v>88.065849445526268</v>
+      </c>
+      <c r="I67" s="22">
+        <v>88.067000458417624</v>
+      </c>
+      <c r="J67" s="22">
+        <v>85.814269073621318</v>
+      </c>
+      <c r="K67" s="22">
+        <v>87.037321836481567</v>
+      </c>
+      <c r="L67" s="22">
+        <v>87.039048653956968</v>
+      </c>
+      <c r="M67" s="22">
+        <v>25.281885859591043</v>
+      </c>
+      <c r="N67" s="22">
+        <v>24.649948278954525</v>
+      </c>
+      <c r="O67" s="22">
+        <v>24.609661933342352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -15990,6 +17472,36 @@
       </c>
       <c r="E68" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="F68" s="22">
+        <v>88.092900633579873</v>
+      </c>
+      <c r="G68" s="22">
+        <v>88.065273939080598</v>
+      </c>
+      <c r="H68" s="22">
+        <v>88.06584934614682</v>
+      </c>
+      <c r="I68" s="22">
+        <v>88.064122826809793</v>
+      </c>
+      <c r="J68" s="22">
+        <v>85.402760697761522</v>
+      </c>
+      <c r="K68" s="22">
+        <v>86.87615488869028</v>
+      </c>
+      <c r="L68" s="22">
+        <v>86.861765339338774</v>
+      </c>
+      <c r="M68" s="22">
+        <v>25.336001353786799</v>
+      </c>
+      <c r="N68" s="22">
+        <v>24.831234399412622</v>
+      </c>
+      <c r="O68" s="22">
+        <v>24.752965522801219</v>
       </c>
     </row>
   </sheetData>
@@ -16007,62 +17519,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G41" activeCellId="1" sqref="G37:I37 G41:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="15" width="11.5546875" style="22"/>
+    <col min="6" max="15" width="11.5703125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F2" s="42" t="s">
+    <row r="1" spans="1:15" ht="21" thickBot="1"/>
+    <row r="2" spans="1:15">
+      <c r="F2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F3" s="43"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3" s="48"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="44"/>
-      <c r="G4" s="52" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="1:15" ht="43" thickBot="1">
+      <c r="F4" s="49"/>
+      <c r="G4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="31" t="s">
         <v>44</v>
       </c>
       <c r="J4" s="24" t="s">
@@ -16084,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21" thickTop="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -16141,7 +17653,7 @@
         <v>-12.077462860272462</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="D6" t="s">
         <v>25</v>
       </c>
@@ -16189,7 +17701,7 @@
         <v>-12.089808539284803</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -16237,7 +17749,7 @@
         <v>-13.038341990495738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="D8" t="s">
         <v>31</v>
       </c>
@@ -16285,7 +17797,7 @@
         <v>-13.039027297513272</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -16336,7 +17848,7 @@
         <v>-57.296228857355388</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="D10" t="s">
         <v>25</v>
       </c>
@@ -16384,7 +17896,7 @@
         <v>-57.513684559630889</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="D11" t="s">
         <v>31</v>
       </c>
@@ -16432,7 +17944,7 @@
         <v>-55.907201886269846</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="D12" t="s">
         <v>31</v>
       </c>
@@ -16480,7 +17992,7 @@
         <v>-56.595000660674671</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" hidden="1">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -16525,7 +18037,7 @@
         <v>70.657584263252829</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" hidden="1">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -16564,7 +18076,7 @@
         <v>70.632915725337213</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" hidden="1">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -16603,7 +18115,7 @@
         <v>70.642460038836077</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" hidden="1">
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -16642,7 +18154,7 @@
         <v>70.643145345853625</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" hidden="1">
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -16684,7 +18196,7 @@
         <v>27.448336762523027</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" hidden="1">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -16723,7 +18235,7 @@
         <v>27.463888862056436</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" hidden="1">
       <c r="D19" t="s">
         <v>31</v>
       </c>
@@ -16762,7 +18274,7 @@
         <v>28.655830608746129</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" hidden="1">
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -16801,7 +18313,7 @@
         <v>28.663300465763726</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -16858,7 +18370,7 @@
         <v>-12.330492229752863</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="D22" t="s">
         <v>25</v>
       </c>
@@ -16906,7 +18418,7 @@
         <v>-12.305823691837247</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15">
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -16954,7 +18466,7 @@
         <v>-13.35975647770853</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -17002,7 +18514,7 @@
         <v>-13.360441784726078</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -17053,7 +18565,7 @@
         <v>-58.109123898392951</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="D26" t="s">
         <v>25</v>
       </c>
@@ -17101,7 +18613,7 @@
         <v>-58.223035782708521</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="D27" t="s">
         <v>31</v>
       </c>
@@ -17149,7 +18661,7 @@
         <v>-57.52858560689684</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="D28" t="s">
         <v>31</v>
       </c>
@@ -17197,7 +18709,7 @@
         <v>-58.079398940312871</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" hidden="1">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -17242,7 +18754,7 @@
         <v>70.614385796764154</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" hidden="1">
       <c r="D30" t="s">
         <v>25</v>
       </c>
@@ -17281,7 +18793,7 @@
         <v>70.620570046324872</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" hidden="1">
       <c r="D31" t="s">
         <v>31</v>
       </c>
@@ -17320,7 +18832,7 @@
         <v>70.642460179758757</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" hidden="1">
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -17359,7 +18871,7 @@
         <v>70.641774872741209</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" hidden="1">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -17401,7 +18913,7 @@
         <v>26.449001671126283</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" hidden="1">
       <c r="D34" t="s">
         <v>25</v>
       </c>
@@ -17440,7 +18952,7 @@
         <v>27.174347729490094</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" hidden="1">
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -17479,7 +18991,7 @@
         <v>27.638155634115734</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" hidden="1">
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -17518,7 +19030,7 @@
         <v>28.369109640348157</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
       <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
@@ -17575,7 +19087,7 @@
         <v>-13.200098126469044</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -17626,7 +19138,7 @@
         <v>-13.181591018005065</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -17677,7 +19189,7 @@
         <v>-14.313123526512427</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -17728,7 +19240,7 @@
         <v>-14.31243793764952</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27" t="s">
@@ -17781,7 +19293,7 @@
         <v>-58.627132778867178</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -17832,7 +19344,7 @@
         <v>-58.792957442629501</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -17883,7 +19395,7 @@
         <v>-58.564600066846609</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -17934,7 +19446,7 @@
         <v>-58.977251008343728</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" hidden="1">
       <c r="A45" s="27"/>
       <c r="B45" s="27" t="s">
         <v>34</v>
@@ -17979,7 +19491,7 @@
         <v>70.620581456379412</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" hidden="1">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -18020,7 +19532,7 @@
         <v>70.614408616873234</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" hidden="1">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -18061,7 +19573,7 @@
         <v>70.64383051194848</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" hidden="1">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -18102,7 +19614,7 @@
         <v>70.644516100811387</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" hidden="1">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27" t="s">
@@ -18145,7 +19657,7 @@
         <v>25.65159433169444</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" hidden="1">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -18186,7 +19698,7 @@
         <v>26.09191516217011</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" hidden="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -18227,7 +19739,7 @@
         <v>25.65159433169444</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" hidden="1">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -18268,7 +19780,7 @@
         <v>26.401850719809445</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15">
       <c r="A53" s="27" t="s">
         <v>38</v>
       </c>
@@ -18285,7 +19797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -18296,7 +19808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -18307,7 +19819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -18318,7 +19830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27" t="s">
@@ -18331,7 +19843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -18342,7 +19854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -18353,7 +19865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -18364,7 +19876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15">
       <c r="A61" s="27"/>
       <c r="B61" s="27" t="s">
         <v>34</v>
@@ -18379,7 +19891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -18390,7 +19902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -18401,7 +19913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -18412,7 +19924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27" t="s">
@@ -18425,7 +19937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -18436,7 +19948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -18447,7 +19959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -18474,27 +19986,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B7:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="7" spans="2:10" ht="78" x14ac:dyDescent="0.4">
-      <c r="C7" s="53" t="s">
+    <row r="7" spans="2:10" ht="84">
+      <c r="C7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -18508,7 +20020,7 @@
         <v>-7.9916021998599263E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>49</v>
       </c>
@@ -18522,7 +20034,7 @@
         <v>-1.5149612485473085E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10">
       <c r="H10" t="s">
         <v>50</v>
       </c>
@@ -18530,8 +20042,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="39" x14ac:dyDescent="0.4">
-      <c r="G11" s="53" t="s">
+    <row r="11" spans="2:10" ht="42">
+      <c r="G11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="22">
@@ -18546,8 +20058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="78" x14ac:dyDescent="0.4">
-      <c r="G12" s="53" t="s">
+    <row r="12" spans="2:10" ht="84">
+      <c r="G12" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="22">
@@ -18562,8 +20074,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="G13" s="53" t="s">
+    <row r="13" spans="2:10" ht="63">
+      <c r="G13" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="22">
@@ -18586,27 +20098,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B7:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="7" spans="2:10" ht="78" x14ac:dyDescent="0.4">
-      <c r="C7" s="53" t="s">
+    <row r="7" spans="2:10" ht="84">
+      <c r="C7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -18620,7 +20132,7 @@
         <v>-7.9916021998599263E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>49</v>
       </c>
@@ -18634,7 +20146,7 @@
         <v>-1.5149612485473085E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10">
       <c r="H10" t="s">
         <v>50</v>
       </c>
@@ -18642,8 +20154,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="39" x14ac:dyDescent="0.4">
-      <c r="G11" s="53" t="s">
+    <row r="11" spans="2:10" ht="42">
+      <c r="G11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="22">
@@ -18658,8 +20170,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="78" x14ac:dyDescent="0.4">
-      <c r="G12" s="53" t="s">
+    <row r="12" spans="2:10" ht="84">
+      <c r="G12" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="22">
@@ -18674,8 +20186,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="G13" s="53" t="s">
+    <row r="13" spans="2:10" ht="63">
+      <c r="G13" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="22">
